--- a/files/PropertyAPICodeList0.4.xlsx
+++ b/files/PropertyAPICodeList0.4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-33720" yWindow="1560" windowWidth="27980" windowHeight="17540" tabRatio="856" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27980" windowHeight="15940" tabRatio="856" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5978" uniqueCount="2562">
   <si>
     <t>Code</t>
   </si>
@@ -7733,6 +7733,24 @@
   </si>
   <si>
     <t>DEPARTMENT_TAX_ON_TAXE_DE_SEJOUR</t>
+  </si>
+  <si>
+    <t>GUESTROOM_TERRACE_PATIO</t>
+  </si>
+  <si>
+    <t>NUMBER_OF_BATHROOMS</t>
+  </si>
+  <si>
+    <t>Number of Bedrooms in the Property</t>
+  </si>
+  <si>
+    <t>Number of Bathrooms in the Property</t>
+  </si>
+  <si>
+    <t>Submit the number of bedrooms offered at the property as the value</t>
+  </si>
+  <si>
+    <t>Submit the number of bathrooms offered at the property as the value</t>
   </si>
 </sst>
 </file>
@@ -8955,29 +8973,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8985,29 +8997,26 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -9015,16 +9024,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -9036,19 +9054,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9885,7 +9903,7 @@
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10142,9 +10160,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>TERRACE_PATIO</v>
+      <c r="A25" s="9" t="s">
+        <v>2556</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>657</v>
@@ -11091,7 +11108,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f>SUBSTITUTE(TRIM(UPPER(B109))," ","_")</f>
         <v>THEATER_SHOW</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -11102,9 +11119,8 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>GAMES_ROOM</v>
+      <c r="A110" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>726</v>
@@ -24085,7 +24101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A229" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:O1048576"/>
     </sheetView>
   </sheetViews>
@@ -24184,19 +24200,19 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="251" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="254" t="s">
+      <c r="B4" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D4" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="251" t="s">
         <v>623</v>
       </c>
       <c r="F4" s="35">
@@ -24283,13 +24299,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="254"/>
-      <c r="B5" s="254"/>
-      <c r="C5" s="252"/>
+      <c r="A5" s="251"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="254"/>
       <c r="D5" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="251"/>
       <c r="F5" s="44">
         <v>6</v>
       </c>
@@ -24374,13 +24390,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="254"/>
-      <c r="B6" s="254"/>
-      <c r="C6" s="252"/>
+      <c r="A6" s="251"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="254"/>
       <c r="D6" s="192" t="s">
         <v>1053</v>
       </c>
-      <c r="E6" s="254"/>
+      <c r="E6" s="251"/>
       <c r="F6" s="44">
         <v>197</v>
       </c>
@@ -24413,13 +24429,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="254"/>
-      <c r="B7" s="254"/>
-      <c r="C7" s="252"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="254"/>
       <c r="D7" s="179" t="s">
         <v>1030</v>
       </c>
-      <c r="E7" s="254"/>
+      <c r="E7" s="251"/>
       <c r="F7" s="44">
         <v>197</v>
       </c>
@@ -24456,13 +24472,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="254"/>
-      <c r="B8" s="254"/>
-      <c r="C8" s="252"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="254"/>
       <c r="D8" s="179" t="s">
         <v>1029</v>
       </c>
-      <c r="E8" s="254"/>
+      <c r="E8" s="251"/>
       <c r="F8" s="44">
         <v>197</v>
       </c>
@@ -24499,13 +24515,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="254"/>
-      <c r="B9" s="254"/>
-      <c r="C9" s="252"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="254"/>
       <c r="D9" s="179" t="s">
         <v>1028</v>
       </c>
-      <c r="E9" s="254"/>
+      <c r="E9" s="251"/>
       <c r="F9" s="44">
         <v>197</v>
       </c>
@@ -24542,13 +24558,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="254"/>
-      <c r="B10" s="254"/>
-      <c r="C10" s="252"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="254"/>
       <c r="D10" s="179" t="s">
         <v>1590</v>
       </c>
-      <c r="E10" s="254"/>
+      <c r="E10" s="251"/>
       <c r="F10" s="44">
         <v>197</v>
       </c>
@@ -24585,13 +24601,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="254"/>
-      <c r="B11" s="254"/>
-      <c r="C11" s="252"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="179" t="s">
         <v>1669</v>
       </c>
-      <c r="E11" s="254"/>
+      <c r="E11" s="251"/>
       <c r="F11" s="44">
         <v>197</v>
       </c>
@@ -24628,13 +24644,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="254"/>
-      <c r="B12" s="254"/>
-      <c r="C12" s="252"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="254"/>
       <c r="D12" s="179" t="s">
         <v>1670</v>
       </c>
-      <c r="E12" s="254"/>
+      <c r="E12" s="251"/>
       <c r="F12" s="44">
         <v>197</v>
       </c>
@@ -24671,13 +24687,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="254"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="252"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="254"/>
       <c r="D13" s="179" t="s">
         <v>1671</v>
       </c>
-      <c r="E13" s="254"/>
+      <c r="E13" s="251"/>
       <c r="F13" s="44">
         <v>197</v>
       </c>
@@ -24714,13 +24730,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="254"/>
-      <c r="B14" s="254"/>
-      <c r="C14" s="252"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="254"/>
       <c r="D14" s="179" t="s">
         <v>1672</v>
       </c>
-      <c r="E14" s="254"/>
+      <c r="E14" s="251"/>
       <c r="F14" s="44">
         <v>197</v>
       </c>
@@ -24757,13 +24773,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="254"/>
-      <c r="B15" s="254"/>
-      <c r="C15" s="252"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="254"/>
       <c r="D15" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="254"/>
+      <c r="E15" s="251"/>
       <c r="F15" s="44">
         <v>197</v>
       </c>
@@ -24800,19 +24816,19 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="253" t="s">
+      <c r="A16" s="256" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="253" t="s">
+      <c r="B16" s="256" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="251" t="s">
+      <c r="C16" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="175" t="s">
         <v>626</v>
       </c>
-      <c r="E16" s="256" t="s">
+      <c r="E16" s="252" t="s">
         <v>623</v>
       </c>
       <c r="F16" s="49">
@@ -24847,13 +24863,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="253"/>
-      <c r="B17" s="253"/>
-      <c r="C17" s="251"/>
+      <c r="A17" s="256"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="255"/>
+      <c r="E17" s="253"/>
       <c r="F17" s="49">
         <v>6</v>
       </c>
@@ -24886,13 +24902,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="253"/>
-      <c r="B18" s="253"/>
-      <c r="C18" s="251"/>
+      <c r="A18" s="256"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="57" t="s">
         <v>1053</v>
       </c>
-      <c r="E18" s="255"/>
+      <c r="E18" s="253"/>
       <c r="F18" s="49">
         <v>197</v>
       </c>
@@ -24925,13 +24941,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="253"/>
-      <c r="B19" s="253"/>
-      <c r="C19" s="251"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="175" t="s">
         <v>1030</v>
       </c>
-      <c r="E19" s="255"/>
+      <c r="E19" s="253"/>
       <c r="F19" s="56">
         <v>197</v>
       </c>
@@ -24968,13 +24984,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="253"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="251"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="175" t="s">
         <v>1029</v>
       </c>
-      <c r="E20" s="255"/>
+      <c r="E20" s="253"/>
       <c r="F20" s="56">
         <v>197</v>
       </c>
@@ -25011,13 +25027,13 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="253"/>
-      <c r="B21" s="253"/>
-      <c r="C21" s="251"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="259"/>
       <c r="D21" s="175" t="s">
         <v>1028</v>
       </c>
-      <c r="E21" s="255"/>
+      <c r="E21" s="253"/>
       <c r="F21" s="56">
         <v>197</v>
       </c>
@@ -25054,13 +25070,13 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="253"/>
-      <c r="B22" s="253"/>
-      <c r="C22" s="251"/>
+      <c r="A22" s="256"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="259"/>
       <c r="D22" s="175" t="s">
         <v>1590</v>
       </c>
-      <c r="E22" s="255"/>
+      <c r="E22" s="253"/>
       <c r="F22" s="56">
         <v>197</v>
       </c>
@@ -25097,13 +25113,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="253"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="251"/>
+      <c r="A23" s="256"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="259"/>
       <c r="D23" s="175" t="s">
         <v>1669</v>
       </c>
-      <c r="E23" s="255"/>
+      <c r="E23" s="253"/>
       <c r="F23" s="56">
         <v>197</v>
       </c>
@@ -25140,13 +25156,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="253"/>
-      <c r="B24" s="253"/>
-      <c r="C24" s="251"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="259"/>
       <c r="D24" s="175" t="s">
         <v>1670</v>
       </c>
-      <c r="E24" s="255"/>
+      <c r="E24" s="253"/>
       <c r="F24" s="56">
         <v>197</v>
       </c>
@@ -25183,13 +25199,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="253"/>
-      <c r="B25" s="253"/>
-      <c r="C25" s="251"/>
+      <c r="A25" s="256"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="175" t="s">
         <v>1671</v>
       </c>
-      <c r="E25" s="255"/>
+      <c r="E25" s="253"/>
       <c r="F25" s="56">
         <v>197</v>
       </c>
@@ -25226,13 +25242,13 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="253"/>
-      <c r="B26" s="253"/>
-      <c r="C26" s="251"/>
+      <c r="A26" s="256"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="175" t="s">
         <v>1672</v>
       </c>
-      <c r="E26" s="255"/>
+      <c r="E26" s="253"/>
       <c r="F26" s="56">
         <v>197</v>
       </c>
@@ -25269,13 +25285,13 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="253"/>
-      <c r="B27" s="253"/>
-      <c r="C27" s="251"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="255"/>
+      <c r="E27" s="253"/>
       <c r="F27" s="56">
         <v>197</v>
       </c>
@@ -25463,19 +25479,19 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="254" t="s">
+      <c r="A31" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="254" t="s">
+      <c r="B31" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="252" t="s">
+      <c r="C31" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D31" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="E31" s="254" t="s">
+      <c r="E31" s="251" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="35">
@@ -25510,13 +25526,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="254"/>
-      <c r="B32" s="254"/>
-      <c r="C32" s="252"/>
+      <c r="A32" s="251"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="254"/>
       <c r="D32" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="251"/>
       <c r="F32" s="35">
         <v>6</v>
       </c>
@@ -25549,13 +25565,13 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="254"/>
-      <c r="B33" s="254"/>
-      <c r="C33" s="252"/>
+      <c r="A33" s="251"/>
+      <c r="B33" s="251"/>
+      <c r="C33" s="254"/>
       <c r="D33" s="179" t="s">
         <v>988</v>
       </c>
-      <c r="E33" s="254"/>
+      <c r="E33" s="251"/>
       <c r="F33" s="35">
         <v>6</v>
       </c>
@@ -25588,19 +25604,19 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="253" t="s">
+      <c r="A34" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="253" t="s">
+      <c r="B34" s="256" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="251" t="s">
+      <c r="C34" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E34" s="253" t="s">
+      <c r="E34" s="256" t="s">
         <v>16</v>
       </c>
       <c r="F34" s="36">
@@ -25635,13 +25651,13 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="253"/>
-      <c r="B35" s="253"/>
-      <c r="C35" s="251"/>
+      <c r="A35" s="256"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="259"/>
       <c r="D35" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E35" s="253"/>
+      <c r="E35" s="256"/>
       <c r="F35" s="36">
         <v>6</v>
       </c>
@@ -25674,13 +25690,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="253"/>
-      <c r="B36" s="253"/>
-      <c r="C36" s="251"/>
+      <c r="A36" s="256"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="259"/>
       <c r="D36" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E36" s="253"/>
+      <c r="E36" s="256"/>
       <c r="F36" s="36">
         <v>6</v>
       </c>
@@ -25756,19 +25772,19 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="258" t="s">
+      <c r="A38" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="253" t="s">
+      <c r="B38" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="251" t="s">
+      <c r="C38" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E38" s="253" t="s">
+      <c r="E38" s="256" t="s">
         <v>21</v>
       </c>
       <c r="F38" s="36">
@@ -25803,13 +25819,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="258"/>
-      <c r="B39" s="253"/>
-      <c r="C39" s="251"/>
+      <c r="A39" s="260"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="259"/>
       <c r="D39" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="253"/>
+      <c r="E39" s="256"/>
       <c r="F39" s="36">
         <v>6</v>
       </c>
@@ -25842,13 +25858,13 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="258"/>
-      <c r="B40" s="253"/>
-      <c r="C40" s="251"/>
+      <c r="A40" s="260"/>
+      <c r="B40" s="256"/>
+      <c r="C40" s="259"/>
       <c r="D40" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E40" s="253"/>
+      <c r="E40" s="256"/>
       <c r="F40" s="36">
         <v>6</v>
       </c>
@@ -26529,19 +26545,19 @@
       </c>
     </row>
     <row r="55" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="254" t="s">
+      <c r="A55" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="254" t="s">
+      <c r="B55" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="252" t="s">
+      <c r="C55" s="254" t="s">
         <v>221</v>
       </c>
       <c r="D55" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="254" t="s">
+      <c r="E55" s="251" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="35">
@@ -26576,13 +26592,13 @@
       </c>
     </row>
     <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="254"/>
-      <c r="B56" s="254"/>
-      <c r="C56" s="252"/>
+      <c r="A56" s="251"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="254"/>
       <c r="D56" s="179" t="s">
         <v>988</v>
       </c>
-      <c r="E56" s="254"/>
+      <c r="E56" s="251"/>
       <c r="F56" s="35">
         <v>6</v>
       </c>
@@ -26615,19 +26631,19 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="253" t="s">
+      <c r="A57" s="256" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="253" t="s">
+      <c r="B57" s="256" t="s">
         <v>43</v>
       </c>
-      <c r="C57" s="251" t="s">
+      <c r="C57" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E57" s="253" t="s">
+      <c r="E57" s="256" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="36">
@@ -26662,13 +26678,13 @@
       </c>
     </row>
     <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="253"/>
-      <c r="B58" s="253"/>
-      <c r="C58" s="251"/>
+      <c r="A58" s="256"/>
+      <c r="B58" s="256"/>
+      <c r="C58" s="259"/>
       <c r="D58" s="52" t="s">
         <v>1003</v>
       </c>
-      <c r="E58" s="253"/>
+      <c r="E58" s="256"/>
       <c r="F58" s="36">
         <v>6</v>
       </c>
@@ -26701,19 +26717,19 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="254" t="s">
+      <c r="A59" s="251" t="s">
         <v>184</v>
       </c>
-      <c r="B59" s="254" t="s">
+      <c r="B59" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="252" t="s">
+      <c r="C59" s="254" t="s">
         <v>221</v>
       </c>
       <c r="D59" s="179" t="s">
         <v>1673</v>
       </c>
-      <c r="E59" s="254"/>
+      <c r="E59" s="251"/>
       <c r="F59" s="35">
         <v>6</v>
       </c>
@@ -26748,13 +26764,13 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="254"/>
-      <c r="B60" s="254"/>
-      <c r="C60" s="252"/>
+      <c r="A60" s="251"/>
+      <c r="B60" s="251"/>
+      <c r="C60" s="254"/>
       <c r="D60" s="179" t="s">
         <v>1474</v>
       </c>
-      <c r="E60" s="254"/>
+      <c r="E60" s="251"/>
       <c r="F60" s="167">
         <v>6</v>
       </c>
@@ -26789,13 +26805,13 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="254"/>
-      <c r="B61" s="254"/>
-      <c r="C61" s="252"/>
+      <c r="A61" s="251"/>
+      <c r="B61" s="251"/>
+      <c r="C61" s="254"/>
       <c r="D61" s="179" t="s">
         <v>988</v>
       </c>
-      <c r="E61" s="254"/>
+      <c r="E61" s="251"/>
       <c r="F61" s="167">
         <v>6</v>
       </c>
@@ -26828,19 +26844,19 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="253" t="s">
+      <c r="A62" s="256" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="253" t="s">
+      <c r="B62" s="256" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="251" t="s">
+      <c r="C62" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E62" s="253"/>
+      <c r="E62" s="256"/>
       <c r="F62" s="36">
         <v>6</v>
       </c>
@@ -26873,13 +26889,13 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="253"/>
-      <c r="B63" s="253"/>
-      <c r="C63" s="251"/>
+      <c r="A63" s="256"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="259"/>
       <c r="D63" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E63" s="253"/>
+      <c r="E63" s="256"/>
       <c r="F63" s="36">
         <v>6</v>
       </c>
@@ -27106,19 +27122,19 @@
       </c>
     </row>
     <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="254" t="s">
+      <c r="A68" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="254" t="s">
+      <c r="B68" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="252" t="s">
+      <c r="C68" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D68" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="254" t="s">
+      <c r="E68" s="251" t="s">
         <v>52</v>
       </c>
       <c r="F68" s="35">
@@ -27155,13 +27171,13 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="254"/>
-      <c r="B69" s="254"/>
-      <c r="C69" s="252"/>
+      <c r="A69" s="251"/>
+      <c r="B69" s="251"/>
+      <c r="C69" s="254"/>
       <c r="D69" s="179" t="s">
         <v>1003</v>
       </c>
-      <c r="E69" s="254"/>
+      <c r="E69" s="251"/>
       <c r="F69" s="35">
         <v>6</v>
       </c>
@@ -27246,19 +27262,19 @@
       </c>
     </row>
     <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="253" t="s">
+      <c r="A70" s="256" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="253" t="s">
+      <c r="B70" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="251" t="s">
+      <c r="C70" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E70" s="253" t="s">
+      <c r="E70" s="256" t="s">
         <v>212</v>
       </c>
       <c r="F70" s="36">
@@ -27293,13 +27309,13 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="253"/>
-      <c r="B71" s="253"/>
-      <c r="C71" s="251"/>
+      <c r="A71" s="256"/>
+      <c r="B71" s="256"/>
+      <c r="C71" s="259"/>
       <c r="D71" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E71" s="253"/>
+      <c r="E71" s="256"/>
       <c r="F71" s="36">
         <v>6</v>
       </c>
@@ -27332,13 +27348,13 @@
       </c>
     </row>
     <row r="72" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="253"/>
-      <c r="B72" s="253"/>
-      <c r="C72" s="251"/>
+      <c r="A72" s="256"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="259"/>
       <c r="D72" s="52" t="s">
         <v>1009</v>
       </c>
-      <c r="E72" s="253"/>
+      <c r="E72" s="256"/>
       <c r="F72" s="90">
         <v>197</v>
       </c>
@@ -27377,13 +27393,13 @@
       <c r="B73" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="252" t="s">
+      <c r="C73" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D73" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="E73" s="254" t="s">
+      <c r="E73" s="251" t="s">
         <v>57</v>
       </c>
       <c r="F73" s="167">
@@ -27420,11 +27436,11 @@
     <row r="74" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
-      <c r="C74" s="252"/>
+      <c r="C74" s="254"/>
       <c r="D74" s="218" t="s">
         <v>1003</v>
       </c>
-      <c r="E74" s="254"/>
+      <c r="E74" s="251"/>
       <c r="F74" s="167">
         <v>6</v>
       </c>
@@ -27457,19 +27473,19 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="253" t="s">
+      <c r="A75" s="256" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="253" t="s">
+      <c r="B75" s="256" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="251" t="s">
+      <c r="C75" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E75" s="253" t="s">
+      <c r="E75" s="256" t="s">
         <v>60</v>
       </c>
       <c r="F75" s="36">
@@ -27506,13 +27522,13 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="253"/>
-      <c r="B76" s="253"/>
-      <c r="C76" s="251"/>
+      <c r="A76" s="256"/>
+      <c r="B76" s="256"/>
+      <c r="C76" s="259"/>
       <c r="D76" s="52" t="s">
         <v>1003</v>
       </c>
-      <c r="E76" s="253"/>
+      <c r="E76" s="256"/>
       <c r="F76" s="36">
         <v>6</v>
       </c>
@@ -27784,19 +27800,19 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="254" t="s">
+      <c r="A82" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="B82" s="254" t="s">
+      <c r="B82" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="252" t="s">
+      <c r="C82" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D82" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="E82" s="254" t="s">
+      <c r="E82" s="251" t="s">
         <v>64</v>
       </c>
       <c r="F82" s="35">
@@ -27831,13 +27847,13 @@
       </c>
     </row>
     <row r="83" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="254"/>
-      <c r="B83" s="254"/>
-      <c r="C83" s="252"/>
+      <c r="A83" s="251"/>
+      <c r="B83" s="251"/>
+      <c r="C83" s="254"/>
       <c r="D83" s="179" t="s">
         <v>988</v>
       </c>
-      <c r="E83" s="254"/>
+      <c r="E83" s="251"/>
       <c r="F83" s="35">
         <v>6</v>
       </c>
@@ -27870,19 +27886,19 @@
       </c>
     </row>
     <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="253" t="s">
+      <c r="A84" s="256" t="s">
         <v>65</v>
       </c>
-      <c r="B84" s="253" t="s">
+      <c r="B84" s="256" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="251" t="s">
+      <c r="C84" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D84" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E84" s="253" t="s">
+      <c r="E84" s="256" t="s">
         <v>67</v>
       </c>
       <c r="F84" s="49">
@@ -27917,13 +27933,13 @@
       </c>
     </row>
     <row r="85" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="253"/>
-      <c r="B85" s="253"/>
-      <c r="C85" s="251"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="256"/>
+      <c r="C85" s="259"/>
       <c r="D85" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E85" s="253"/>
+      <c r="E85" s="256"/>
       <c r="F85" s="49">
         <v>6</v>
       </c>
@@ -30337,13 +30353,13 @@
       </c>
     </row>
     <row r="141" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="254" t="s">
+      <c r="A141" s="251" t="s">
         <v>1558</v>
       </c>
-      <c r="B141" s="254" t="s">
+      <c r="B141" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="C141" s="252" t="s">
+      <c r="C141" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D141" s="179" t="s">
@@ -30382,9 +30398,9 @@
       </c>
     </row>
     <row r="142" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="254"/>
-      <c r="B142" s="254"/>
-      <c r="C142" s="252"/>
+      <c r="A142" s="251"/>
+      <c r="B142" s="251"/>
+      <c r="C142" s="254"/>
       <c r="D142" s="179" t="s">
         <v>1676</v>
       </c>
@@ -30421,9 +30437,9 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="254"/>
-      <c r="B143" s="254"/>
-      <c r="C143" s="252"/>
+      <c r="A143" s="251"/>
+      <c r="B143" s="251"/>
+      <c r="C143" s="254"/>
       <c r="D143" s="179" t="s">
         <v>1677</v>
       </c>
@@ -30460,9 +30476,9 @@
       </c>
     </row>
     <row r="144" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="254"/>
-      <c r="B144" s="254"/>
-      <c r="C144" s="252"/>
+      <c r="A144" s="251"/>
+      <c r="B144" s="251"/>
+      <c r="C144" s="254"/>
       <c r="D144" s="179" t="s">
         <v>1678</v>
       </c>
@@ -30499,9 +30515,9 @@
       </c>
     </row>
     <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="254"/>
-      <c r="B145" s="254"/>
-      <c r="C145" s="252"/>
+      <c r="A145" s="251"/>
+      <c r="B145" s="251"/>
+      <c r="C145" s="254"/>
       <c r="D145" s="179" t="s">
         <v>1549</v>
       </c>
@@ -30538,9 +30554,9 @@
       </c>
     </row>
     <row r="146" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="254"/>
-      <c r="B146" s="254"/>
-      <c r="C146" s="252"/>
+      <c r="A146" s="251"/>
+      <c r="B146" s="251"/>
+      <c r="C146" s="254"/>
       <c r="D146" s="179" t="s">
         <v>1550</v>
       </c>
@@ -30577,9 +30593,9 @@
       </c>
     </row>
     <row r="147" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="254"/>
-      <c r="B147" s="254"/>
-      <c r="C147" s="252"/>
+      <c r="A147" s="251"/>
+      <c r="B147" s="251"/>
+      <c r="C147" s="254"/>
       <c r="D147" s="179" t="s">
         <v>988</v>
       </c>
@@ -30616,19 +30632,19 @@
       </c>
     </row>
     <row r="148" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="256" t="s">
+      <c r="A148" s="252" t="s">
         <v>1561</v>
       </c>
-      <c r="B148" s="256" t="s">
+      <c r="B148" s="252" t="s">
         <v>1025</v>
       </c>
-      <c r="C148" s="257" t="s">
+      <c r="C148" s="255" t="s">
         <v>220</v>
       </c>
       <c r="D148" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="255"/>
+      <c r="E148" s="253"/>
       <c r="F148" s="163">
         <v>6</v>
       </c>
@@ -30663,13 +30679,13 @@
       </c>
     </row>
     <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="256"/>
-      <c r="B149" s="256"/>
-      <c r="C149" s="257"/>
+      <c r="A149" s="252"/>
+      <c r="B149" s="252"/>
+      <c r="C149" s="255"/>
       <c r="D149" s="175" t="s">
         <v>1679</v>
       </c>
-      <c r="E149" s="255"/>
+      <c r="E149" s="253"/>
       <c r="F149" s="163">
         <v>6</v>
       </c>
@@ -30704,13 +30720,13 @@
       </c>
     </row>
     <row r="150" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="256"/>
-      <c r="B150" s="256"/>
-      <c r="C150" s="257"/>
+      <c r="A150" s="252"/>
+      <c r="B150" s="252"/>
+      <c r="C150" s="255"/>
       <c r="D150" s="175" t="s">
         <v>1680</v>
       </c>
-      <c r="E150" s="255"/>
+      <c r="E150" s="253"/>
       <c r="F150" s="163">
         <v>6</v>
       </c>
@@ -30745,13 +30761,13 @@
       </c>
     </row>
     <row r="151" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="256"/>
-      <c r="B151" s="256"/>
-      <c r="C151" s="257"/>
+      <c r="A151" s="252"/>
+      <c r="B151" s="252"/>
+      <c r="C151" s="255"/>
       <c r="D151" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="E151" s="255"/>
+      <c r="E151" s="253"/>
       <c r="F151" s="163">
         <v>11</v>
       </c>
@@ -30784,13 +30800,13 @@
       </c>
     </row>
     <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="254" t="s">
+      <c r="A152" s="251" t="s">
         <v>1560</v>
       </c>
-      <c r="B152" s="254" t="s">
+      <c r="B152" s="251" t="s">
         <v>1559</v>
       </c>
-      <c r="C152" s="252" t="s">
+      <c r="C152" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D152" s="179" t="s">
@@ -30831,9 +30847,9 @@
       </c>
     </row>
     <row r="153" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="254"/>
-      <c r="B153" s="254"/>
-      <c r="C153" s="252"/>
+      <c r="A153" s="251"/>
+      <c r="B153" s="251"/>
+      <c r="C153" s="254"/>
       <c r="D153" s="192" t="s">
         <v>1552</v>
       </c>
@@ -30874,9 +30890,9 @@
       </c>
     </row>
     <row r="154" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="254"/>
-      <c r="B154" s="254"/>
-      <c r="C154" s="252"/>
+      <c r="A154" s="251"/>
+      <c r="B154" s="251"/>
+      <c r="C154" s="254"/>
       <c r="D154" s="192" t="s">
         <v>1553</v>
       </c>
@@ -30917,9 +30933,9 @@
       </c>
     </row>
     <row r="155" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="254"/>
-      <c r="B155" s="254"/>
-      <c r="C155" s="252"/>
+      <c r="A155" s="251"/>
+      <c r="B155" s="251"/>
+      <c r="C155" s="254"/>
       <c r="D155" s="192" t="s">
         <v>1554</v>
       </c>
@@ -30962,7 +30978,7 @@
     <row r="156" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="159"/>
       <c r="B156" s="159"/>
-      <c r="C156" s="252"/>
+      <c r="C156" s="254"/>
       <c r="D156" s="192" t="s">
         <v>1564</v>
       </c>
@@ -31005,7 +31021,7 @@
     <row r="157" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="159"/>
       <c r="B157" s="159"/>
-      <c r="C157" s="252"/>
+      <c r="C157" s="254"/>
       <c r="D157" s="192" t="s">
         <v>1565</v>
       </c>
@@ -31046,19 +31062,19 @@
       </c>
     </row>
     <row r="158" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="256" t="s">
+      <c r="A158" s="252" t="s">
         <v>1562</v>
       </c>
-      <c r="B158" s="256" t="s">
+      <c r="B158" s="252" t="s">
         <v>1563</v>
       </c>
-      <c r="C158" s="257" t="s">
+      <c r="C158" s="255" t="s">
         <v>220</v>
       </c>
       <c r="D158" s="187" t="s">
         <v>1555</v>
       </c>
-      <c r="E158" s="255"/>
+      <c r="E158" s="253"/>
       <c r="F158" s="163">
         <v>38</v>
       </c>
@@ -31093,13 +31109,13 @@
       </c>
     </row>
     <row r="159" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="256"/>
-      <c r="B159" s="256"/>
-      <c r="C159" s="257"/>
+      <c r="A159" s="252"/>
+      <c r="B159" s="252"/>
+      <c r="C159" s="255"/>
       <c r="D159" s="187" t="s">
         <v>1574</v>
       </c>
-      <c r="E159" s="255"/>
+      <c r="E159" s="253"/>
       <c r="F159" s="163">
         <v>38</v>
       </c>
@@ -31134,13 +31150,13 @@
       </c>
     </row>
     <row r="160" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="256"/>
-      <c r="B160" s="256"/>
-      <c r="C160" s="257"/>
+      <c r="A160" s="252"/>
+      <c r="B160" s="252"/>
+      <c r="C160" s="255"/>
       <c r="D160" s="187" t="s">
         <v>1575</v>
       </c>
-      <c r="E160" s="255"/>
+      <c r="E160" s="253"/>
       <c r="F160" s="163">
         <v>38</v>
       </c>
@@ -31175,13 +31191,13 @@
       </c>
     </row>
     <row r="161" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="256"/>
-      <c r="B161" s="256"/>
-      <c r="C161" s="257"/>
+      <c r="A161" s="252"/>
+      <c r="B161" s="252"/>
+      <c r="C161" s="255"/>
       <c r="D161" s="187" t="s">
         <v>1556</v>
       </c>
-      <c r="E161" s="255"/>
+      <c r="E161" s="253"/>
       <c r="F161" s="163">
         <v>38</v>
       </c>
@@ -31216,13 +31232,13 @@
       </c>
     </row>
     <row r="162" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="256"/>
-      <c r="B162" s="256"/>
-      <c r="C162" s="257"/>
+      <c r="A162" s="252"/>
+      <c r="B162" s="252"/>
+      <c r="C162" s="255"/>
       <c r="D162" s="187" t="s">
         <v>1557</v>
       </c>
-      <c r="E162" s="255"/>
+      <c r="E162" s="253"/>
       <c r="F162" s="163">
         <v>38</v>
       </c>
@@ -31257,19 +31273,19 @@
       </c>
     </row>
     <row r="163" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="254" t="s">
+      <c r="A163" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="259" t="s">
+      <c r="B163" s="257" t="s">
         <v>103</v>
       </c>
-      <c r="C163" s="252" t="s">
+      <c r="C163" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D163" s="192" t="s">
         <v>626</v>
       </c>
-      <c r="E163" s="254"/>
+      <c r="E163" s="251"/>
       <c r="F163" s="167">
         <v>6</v>
       </c>
@@ -31302,13 +31318,13 @@
       </c>
     </row>
     <row r="164" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="254"/>
-      <c r="B164" s="259"/>
-      <c r="C164" s="252"/>
+      <c r="A164" s="251"/>
+      <c r="B164" s="257"/>
+      <c r="C164" s="254"/>
       <c r="D164" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="E164" s="254"/>
+      <c r="E164" s="251"/>
       <c r="F164" s="167">
         <v>6</v>
       </c>
@@ -31341,13 +31357,13 @@
       </c>
     </row>
     <row r="165" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="254"/>
-      <c r="B165" s="259"/>
-      <c r="C165" s="252"/>
+      <c r="A165" s="251"/>
+      <c r="B165" s="257"/>
+      <c r="C165" s="254"/>
       <c r="D165" s="179" t="s">
         <v>988</v>
       </c>
-      <c r="E165" s="254"/>
+      <c r="E165" s="251"/>
       <c r="F165" s="167">
         <v>6</v>
       </c>
@@ -31376,19 +31392,19 @@
       </c>
     </row>
     <row r="166" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="256" t="s">
+      <c r="A166" s="252" t="s">
         <v>1585</v>
       </c>
-      <c r="B166" s="260" t="s">
+      <c r="B166" s="258" t="s">
         <v>1586</v>
       </c>
-      <c r="C166" s="257" t="s">
+      <c r="C166" s="255" t="s">
         <v>220</v>
       </c>
       <c r="D166" s="175" t="s">
         <v>1582</v>
       </c>
-      <c r="E166" s="256"/>
+      <c r="E166" s="252"/>
       <c r="F166" s="163">
         <v>6</v>
       </c>
@@ -31421,13 +31437,13 @@
       </c>
     </row>
     <row r="167" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="256"/>
-      <c r="B167" s="260"/>
-      <c r="C167" s="257"/>
+      <c r="A167" s="252"/>
+      <c r="B167" s="258"/>
+      <c r="C167" s="255"/>
       <c r="D167" s="175" t="s">
         <v>1583</v>
       </c>
-      <c r="E167" s="256"/>
+      <c r="E167" s="252"/>
       <c r="F167" s="163">
         <v>6</v>
       </c>
@@ -31464,13 +31480,13 @@
       </c>
     </row>
     <row r="168" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="256"/>
-      <c r="B168" s="260"/>
-      <c r="C168" s="257"/>
+      <c r="A168" s="252"/>
+      <c r="B168" s="258"/>
+      <c r="C168" s="255"/>
       <c r="D168" s="175" t="s">
         <v>1584</v>
       </c>
-      <c r="E168" s="256"/>
+      <c r="E168" s="252"/>
       <c r="F168" s="163">
         <v>6</v>
       </c>
@@ -31509,7 +31525,7 @@
     <row r="169" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="162"/>
       <c r="B169" s="158"/>
-      <c r="C169" s="257"/>
+      <c r="C169" s="255"/>
       <c r="D169" s="175" t="s">
         <v>1591</v>
       </c>
@@ -31550,10 +31566,10 @@
       </c>
     </row>
     <row r="170" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="254" t="s">
+      <c r="A170" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="B170" s="254" t="s">
+      <c r="B170" s="251" t="s">
         <v>105</v>
       </c>
       <c r="C170" s="247" t="s">
@@ -31562,7 +31578,7 @@
       <c r="D170" s="173" t="s">
         <v>626</v>
       </c>
-      <c r="E170" s="254" t="s">
+      <c r="E170" s="251" t="s">
         <v>1031</v>
       </c>
       <c r="F170" s="35">
@@ -31597,13 +31613,13 @@
       </c>
     </row>
     <row r="171" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="254"/>
-      <c r="B171" s="254"/>
+      <c r="A171" s="251"/>
+      <c r="B171" s="251"/>
       <c r="C171" s="247"/>
       <c r="D171" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="E171" s="254"/>
+      <c r="E171" s="251"/>
       <c r="F171" s="35">
         <v>6</v>
       </c>
@@ -31636,13 +31652,13 @@
       </c>
     </row>
     <row r="172" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="254"/>
-      <c r="B172" s="254"/>
+      <c r="A172" s="251"/>
+      <c r="B172" s="251"/>
       <c r="C172" s="247"/>
       <c r="D172" s="183" t="s">
         <v>1053</v>
       </c>
-      <c r="E172" s="254"/>
+      <c r="E172" s="251"/>
       <c r="F172" s="35">
         <v>38</v>
       </c>
@@ -31675,13 +31691,13 @@
       </c>
     </row>
     <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="254"/>
-      <c r="B173" s="254"/>
+      <c r="A173" s="251"/>
+      <c r="B173" s="251"/>
       <c r="C173" s="247"/>
       <c r="D173" s="179" t="s">
         <v>1028</v>
       </c>
-      <c r="E173" s="254"/>
+      <c r="E173" s="251"/>
       <c r="F173" s="35">
         <v>38</v>
       </c>
@@ -31718,13 +31734,13 @@
       </c>
     </row>
     <row r="174" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="254"/>
-      <c r="B174" s="254"/>
+      <c r="A174" s="251"/>
+      <c r="B174" s="251"/>
       <c r="C174" s="247"/>
       <c r="D174" s="179" t="s">
         <v>1029</v>
       </c>
-      <c r="E174" s="254"/>
+      <c r="E174" s="251"/>
       <c r="F174" s="35">
         <v>38</v>
       </c>
@@ -31761,13 +31777,13 @@
       </c>
     </row>
     <row r="175" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="254"/>
-      <c r="B175" s="254"/>
+      <c r="A175" s="251"/>
+      <c r="B175" s="251"/>
       <c r="C175" s="247"/>
       <c r="D175" s="179" t="s">
         <v>1030</v>
       </c>
-      <c r="E175" s="254"/>
+      <c r="E175" s="251"/>
       <c r="F175" s="35">
         <v>38</v>
       </c>
@@ -31804,13 +31820,13 @@
       </c>
     </row>
     <row r="176" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="254"/>
-      <c r="B176" s="254"/>
+      <c r="A176" s="251"/>
+      <c r="B176" s="251"/>
       <c r="C176" s="247"/>
       <c r="D176" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="E176" s="254"/>
+      <c r="E176" s="251"/>
       <c r="F176" s="35">
         <v>38</v>
       </c>
@@ -31847,10 +31863,10 @@
       </c>
     </row>
     <row r="177" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="253" t="s">
+      <c r="A177" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="B177" s="253" t="s">
+      <c r="B177" s="256" t="s">
         <v>108</v>
       </c>
       <c r="C177" s="246" t="s">
@@ -31859,7 +31875,7 @@
       <c r="D177" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E177" s="253" t="s">
+      <c r="E177" s="256" t="s">
         <v>1032</v>
       </c>
       <c r="F177" s="36">
@@ -31894,13 +31910,13 @@
       </c>
     </row>
     <row r="178" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="253"/>
-      <c r="B178" s="253"/>
+      <c r="A178" s="256"/>
+      <c r="B178" s="256"/>
       <c r="C178" s="246"/>
       <c r="D178" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E178" s="253"/>
+      <c r="E178" s="256"/>
       <c r="F178" s="36">
         <v>6</v>
       </c>
@@ -31933,13 +31949,13 @@
       </c>
     </row>
     <row r="179" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="253"/>
-      <c r="B179" s="253"/>
+      <c r="A179" s="256"/>
+      <c r="B179" s="256"/>
       <c r="C179" s="246"/>
       <c r="D179" s="52" t="s">
         <v>1053</v>
       </c>
-      <c r="E179" s="253"/>
+      <c r="E179" s="256"/>
       <c r="F179" s="49">
         <v>38</v>
       </c>
@@ -31972,13 +31988,13 @@
       </c>
     </row>
     <row r="180" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A180" s="253"/>
-      <c r="B180" s="253"/>
+      <c r="A180" s="256"/>
+      <c r="B180" s="256"/>
       <c r="C180" s="246"/>
       <c r="D180" s="52" t="s">
         <v>1028</v>
       </c>
-      <c r="E180" s="253"/>
+      <c r="E180" s="256"/>
       <c r="F180" s="49">
         <v>38</v>
       </c>
@@ -32015,13 +32031,13 @@
       </c>
     </row>
     <row r="181" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A181" s="253"/>
-      <c r="B181" s="253"/>
+      <c r="A181" s="256"/>
+      <c r="B181" s="256"/>
       <c r="C181" s="246"/>
       <c r="D181" s="52" t="s">
         <v>1029</v>
       </c>
-      <c r="E181" s="253"/>
+      <c r="E181" s="256"/>
       <c r="F181" s="49">
         <v>38</v>
       </c>
@@ -32058,13 +32074,13 @@
       </c>
     </row>
     <row r="182" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="253"/>
-      <c r="B182" s="253"/>
+      <c r="A182" s="256"/>
+      <c r="B182" s="256"/>
       <c r="C182" s="246"/>
       <c r="D182" s="52" t="s">
         <v>1030</v>
       </c>
-      <c r="E182" s="253"/>
+      <c r="E182" s="256"/>
       <c r="F182" s="49">
         <v>38</v>
       </c>
@@ -32101,13 +32117,13 @@
       </c>
     </row>
     <row r="183" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A183" s="253"/>
-      <c r="B183" s="253"/>
+      <c r="A183" s="256"/>
+      <c r="B183" s="256"/>
       <c r="C183" s="246"/>
       <c r="D183" s="52" t="s">
         <v>1590</v>
       </c>
-      <c r="E183" s="253"/>
+      <c r="E183" s="256"/>
       <c r="F183" s="49">
         <v>38</v>
       </c>
@@ -32144,19 +32160,19 @@
       </c>
     </row>
     <row r="184" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="254" t="s">
+      <c r="A184" s="251" t="s">
         <v>195</v>
       </c>
-      <c r="B184" s="254" t="s">
+      <c r="B184" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="C184" s="252" t="s">
+      <c r="C184" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D184" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="E184" s="254"/>
+      <c r="E184" s="251"/>
       <c r="F184" s="35">
         <v>6</v>
       </c>
@@ -32189,13 +32205,13 @@
       </c>
     </row>
     <row r="185" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="254"/>
-      <c r="B185" s="254"/>
-      <c r="C185" s="252"/>
+      <c r="A185" s="251"/>
+      <c r="B185" s="251"/>
+      <c r="C185" s="254"/>
       <c r="D185" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="E185" s="254"/>
+      <c r="E185" s="251"/>
       <c r="F185" s="35">
         <v>6</v>
       </c>
@@ -32228,19 +32244,19 @@
       </c>
     </row>
     <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="253" t="s">
+      <c r="A186" s="256" t="s">
         <v>196</v>
       </c>
-      <c r="B186" s="253" t="s">
+      <c r="B186" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="C186" s="251" t="s">
+      <c r="C186" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D186" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E186" s="253"/>
+      <c r="E186" s="256"/>
       <c r="F186" s="52">
         <v>6</v>
       </c>
@@ -32273,13 +32289,13 @@
       </c>
     </row>
     <row r="187" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="253"/>
-      <c r="B187" s="253"/>
-      <c r="C187" s="251"/>
+      <c r="A187" s="256"/>
+      <c r="B187" s="256"/>
+      <c r="C187" s="259"/>
       <c r="D187" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E187" s="253"/>
+      <c r="E187" s="256"/>
       <c r="F187" s="52">
         <v>6</v>
       </c>
@@ -32312,19 +32328,19 @@
       </c>
     </row>
     <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A188" s="254" t="s">
+      <c r="A188" s="251" t="s">
         <v>198</v>
       </c>
-      <c r="B188" s="254" t="s">
+      <c r="B188" s="251" t="s">
         <v>112</v>
       </c>
-      <c r="C188" s="252" t="s">
+      <c r="C188" s="254" t="s">
         <v>221</v>
       </c>
       <c r="D188" s="179" t="s">
         <v>1681</v>
       </c>
-      <c r="E188" s="254"/>
+      <c r="E188" s="251"/>
       <c r="F188" s="167">
         <v>6</v>
       </c>
@@ -32357,13 +32373,13 @@
       </c>
     </row>
     <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A189" s="254"/>
-      <c r="B189" s="254"/>
-      <c r="C189" s="252"/>
+      <c r="A189" s="251"/>
+      <c r="B189" s="251"/>
+      <c r="C189" s="254"/>
       <c r="D189" s="179" t="s">
         <v>197</v>
       </c>
-      <c r="E189" s="254"/>
+      <c r="E189" s="251"/>
       <c r="F189" s="167">
         <v>6</v>
       </c>
@@ -32396,19 +32412,19 @@
       </c>
     </row>
     <row r="190" spans="1:15" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A190" s="258" t="s">
+      <c r="A190" s="260" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="258" t="s">
+      <c r="B190" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="C190" s="251" t="s">
+      <c r="C190" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D190" s="170" t="s">
         <v>626</v>
       </c>
-      <c r="E190" s="258"/>
+      <c r="E190" s="260"/>
       <c r="F190" s="52">
         <v>6</v>
       </c>
@@ -32441,13 +32457,13 @@
       </c>
     </row>
     <row r="191" spans="1:15" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A191" s="258"/>
-      <c r="B191" s="258"/>
-      <c r="C191" s="251"/>
+      <c r="A191" s="260"/>
+      <c r="B191" s="260"/>
+      <c r="C191" s="259"/>
       <c r="D191" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E191" s="258"/>
+      <c r="E191" s="260"/>
       <c r="F191" s="52">
         <v>6</v>
       </c>
@@ -32615,7 +32631,7 @@
       <c r="B195" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C195" s="251" t="s">
+      <c r="C195" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D195" s="52" t="s">
@@ -32656,7 +32672,7 @@
     <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="161"/>
       <c r="B196" s="161"/>
-      <c r="C196" s="251"/>
+      <c r="C196" s="259"/>
       <c r="D196" s="52" t="s">
         <v>114</v>
       </c>
@@ -32693,10 +32709,10 @@
       </c>
     </row>
     <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="254" t="s">
+      <c r="A197" s="251" t="s">
         <v>204</v>
       </c>
-      <c r="B197" s="254" t="s">
+      <c r="B197" s="251" t="s">
         <v>119</v>
       </c>
       <c r="C197" s="247" t="s">
@@ -32705,7 +32721,7 @@
       <c r="D197" s="179" t="s">
         <v>626</v>
       </c>
-      <c r="E197" s="254"/>
+      <c r="E197" s="251"/>
       <c r="F197" s="167">
         <v>6</v>
       </c>
@@ -32790,13 +32806,13 @@
       </c>
     </row>
     <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="254"/>
-      <c r="B198" s="254"/>
+      <c r="A198" s="251"/>
+      <c r="B198" s="251"/>
       <c r="C198" s="247"/>
       <c r="D198" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="E198" s="254"/>
+      <c r="E198" s="251"/>
       <c r="F198" s="167">
         <v>6</v>
       </c>
@@ -32829,13 +32845,13 @@
       </c>
     </row>
     <row r="199" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A199" s="254"/>
-      <c r="B199" s="254"/>
+      <c r="A199" s="251"/>
+      <c r="B199" s="251"/>
       <c r="C199" s="247"/>
       <c r="D199" s="179" t="s">
         <v>120</v>
       </c>
-      <c r="E199" s="254"/>
+      <c r="E199" s="251"/>
       <c r="F199" s="35">
         <v>11</v>
       </c>
@@ -32868,19 +32884,19 @@
       </c>
     </row>
     <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A200" s="253" t="s">
+      <c r="A200" s="256" t="s">
         <v>205</v>
       </c>
-      <c r="B200" s="253" t="s">
+      <c r="B200" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="C200" s="251" t="s">
+      <c r="C200" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D200" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E200" s="253"/>
+      <c r="E200" s="256"/>
       <c r="F200" s="52">
         <v>6</v>
       </c>
@@ -32913,13 +32929,13 @@
       </c>
     </row>
     <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A201" s="253"/>
-      <c r="B201" s="253"/>
-      <c r="C201" s="251"/>
+      <c r="A201" s="256"/>
+      <c r="B201" s="256"/>
+      <c r="C201" s="259"/>
       <c r="D201" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E201" s="253"/>
+      <c r="E201" s="256"/>
       <c r="F201" s="52">
         <v>6</v>
       </c>
@@ -32952,13 +32968,13 @@
       </c>
     </row>
     <row r="202" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" s="253"/>
-      <c r="B202" s="253"/>
-      <c r="C202" s="251"/>
+      <c r="A202" s="256"/>
+      <c r="B202" s="256"/>
+      <c r="C202" s="259"/>
       <c r="D202" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E202" s="253"/>
+      <c r="E202" s="256"/>
       <c r="F202" s="36">
         <v>11</v>
       </c>
@@ -33040,7 +33056,7 @@
       <c r="B204" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C204" s="251" t="s">
+      <c r="C204" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D204" s="52" t="s">
@@ -33081,7 +33097,7 @@
     <row r="205" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="161"/>
       <c r="B205" s="161"/>
-      <c r="C205" s="251"/>
+      <c r="C205" s="259"/>
       <c r="D205" s="52" t="s">
         <v>114</v>
       </c>
@@ -33124,7 +33140,7 @@
       <c r="B206" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C206" s="252" t="s">
+      <c r="C206" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D206" s="179" t="s">
@@ -33165,7 +33181,7 @@
     <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="159"/>
       <c r="B207" s="159"/>
-      <c r="C207" s="252"/>
+      <c r="C207" s="254"/>
       <c r="D207" s="179" t="s">
         <v>114</v>
       </c>
@@ -33202,19 +33218,19 @@
       </c>
     </row>
     <row r="208" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A208" s="253" t="s">
+      <c r="A208" s="256" t="s">
         <v>209</v>
       </c>
-      <c r="B208" s="253" t="s">
+      <c r="B208" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="C208" s="251" t="s">
+      <c r="C208" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D208" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E208" s="253"/>
+      <c r="E208" s="256"/>
       <c r="F208" s="52">
         <v>6</v>
       </c>
@@ -33247,13 +33263,13 @@
       </c>
     </row>
     <row r="209" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" s="253"/>
-      <c r="B209" s="253"/>
-      <c r="C209" s="251"/>
+      <c r="A209" s="256"/>
+      <c r="B209" s="256"/>
+      <c r="C209" s="259"/>
       <c r="D209" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E209" s="253"/>
+      <c r="E209" s="256"/>
       <c r="F209" s="52">
         <v>6</v>
       </c>
@@ -33286,13 +33302,13 @@
       </c>
     </row>
     <row r="210" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="253"/>
-      <c r="B210" s="253"/>
-      <c r="C210" s="251"/>
+      <c r="A210" s="256"/>
+      <c r="B210" s="256"/>
+      <c r="C210" s="259"/>
       <c r="D210" s="175" t="s">
         <v>120</v>
       </c>
-      <c r="E210" s="253"/>
+      <c r="E210" s="256"/>
       <c r="F210" s="52">
         <v>6</v>
       </c>
@@ -33325,19 +33341,19 @@
       </c>
     </row>
     <row r="211" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="254" t="s">
+      <c r="A211" s="251" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="254" t="s">
+      <c r="B211" s="251" t="s">
         <v>126</v>
       </c>
-      <c r="C211" s="252" t="s">
+      <c r="C211" s="254" t="s">
         <v>220</v>
       </c>
       <c r="D211" s="179" t="s">
         <v>1682</v>
       </c>
-      <c r="E211" s="254"/>
+      <c r="E211" s="251"/>
       <c r="F211" s="167">
         <v>6</v>
       </c>
@@ -33372,13 +33388,13 @@
       </c>
     </row>
     <row r="212" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="254"/>
-      <c r="B212" s="254"/>
-      <c r="C212" s="252"/>
+      <c r="A212" s="251"/>
+      <c r="B212" s="251"/>
+      <c r="C212" s="254"/>
       <c r="D212" s="179" t="s">
         <v>1593</v>
       </c>
-      <c r="E212" s="254"/>
+      <c r="E212" s="251"/>
       <c r="F212" s="167">
         <v>6</v>
       </c>
@@ -33413,13 +33429,13 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="254"/>
-      <c r="B213" s="254"/>
-      <c r="C213" s="252"/>
+      <c r="A213" s="251"/>
+      <c r="B213" s="251"/>
+      <c r="C213" s="254"/>
       <c r="D213" s="179" t="s">
         <v>1594</v>
       </c>
-      <c r="E213" s="254"/>
+      <c r="E213" s="251"/>
       <c r="F213" s="167">
         <v>6</v>
       </c>
@@ -33454,13 +33470,13 @@
       </c>
     </row>
     <row r="214" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="254"/>
-      <c r="B214" s="254"/>
-      <c r="C214" s="252"/>
+      <c r="A214" s="251"/>
+      <c r="B214" s="251"/>
+      <c r="C214" s="254"/>
       <c r="D214" s="179" t="s">
         <v>1595</v>
       </c>
-      <c r="E214" s="254"/>
+      <c r="E214" s="251"/>
       <c r="F214" s="167">
         <v>6</v>
       </c>
@@ -33501,7 +33517,7 @@
       <c r="B215" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C215" s="251" t="s">
+      <c r="C215" s="259" t="s">
         <v>220</v>
       </c>
       <c r="D215" s="52" t="s">
@@ -33542,7 +33558,7 @@
     <row r="216" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="38"/>
       <c r="B216" s="38"/>
-      <c r="C216" s="251"/>
+      <c r="C216" s="259"/>
       <c r="D216" s="52" t="s">
         <v>114</v>
       </c>
@@ -33773,10 +33789,10 @@
       </c>
     </row>
     <row r="221" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A221" s="253" t="s">
+      <c r="A221" s="256" t="s">
         <v>130</v>
       </c>
-      <c r="B221" s="253" t="s">
+      <c r="B221" s="256" t="s">
         <v>131</v>
       </c>
       <c r="C221" s="246" t="s">
@@ -33785,7 +33801,7 @@
       <c r="D221" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E221" s="253" t="s">
+      <c r="E221" s="256" t="s">
         <v>132</v>
       </c>
       <c r="F221" s="31">
@@ -33822,13 +33838,13 @@
       </c>
     </row>
     <row r="222" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A222" s="253"/>
-      <c r="B222" s="253"/>
+      <c r="A222" s="256"/>
+      <c r="B222" s="256"/>
       <c r="C222" s="246"/>
       <c r="D222" s="52" t="s">
         <v>1003</v>
       </c>
-      <c r="E222" s="253"/>
+      <c r="E222" s="256"/>
       <c r="F222" s="36">
         <v>6</v>
       </c>
@@ -33861,10 +33877,10 @@
       </c>
     </row>
     <row r="223" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A223" s="254" t="s">
+      <c r="A223" s="251" t="s">
         <v>133</v>
       </c>
-      <c r="B223" s="254" t="s">
+      <c r="B223" s="251" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="247" t="s">
@@ -33873,7 +33889,7 @@
       <c r="D223" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="E223" s="254" t="s">
+      <c r="E223" s="251" t="s">
         <v>135</v>
       </c>
       <c r="F223" s="41">
@@ -33910,13 +33926,13 @@
       </c>
     </row>
     <row r="224" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="254"/>
-      <c r="B224" s="254"/>
+      <c r="A224" s="251"/>
+      <c r="B224" s="251"/>
       <c r="C224" s="247"/>
       <c r="D224" s="179" t="s">
         <v>1003</v>
       </c>
-      <c r="E224" s="254"/>
+      <c r="E224" s="251"/>
       <c r="F224" s="35">
         <v>6</v>
       </c>
@@ -33949,10 +33965,10 @@
       </c>
     </row>
     <row r="225" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="253" t="s">
+      <c r="A225" s="256" t="s">
         <v>136</v>
       </c>
-      <c r="B225" s="253" t="s">
+      <c r="B225" s="256" t="s">
         <v>137</v>
       </c>
       <c r="C225" s="246" t="s">
@@ -33961,7 +33977,7 @@
       <c r="D225" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E225" s="253" t="s">
+      <c r="E225" s="256" t="s">
         <v>138</v>
       </c>
       <c r="F225" s="52">
@@ -33996,13 +34012,13 @@
       </c>
     </row>
     <row r="226" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A226" s="253"/>
-      <c r="B226" s="253"/>
+      <c r="A226" s="256"/>
+      <c r="B226" s="256"/>
       <c r="C226" s="246"/>
       <c r="D226" s="52" t="s">
         <v>1003</v>
       </c>
-      <c r="E226" s="253"/>
+      <c r="E226" s="256"/>
       <c r="F226" s="52">
         <v>6</v>
       </c>
@@ -34186,10 +34202,10 @@
       </c>
     </row>
     <row r="230" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A230" s="254" t="s">
+      <c r="A230" s="251" t="s">
         <v>139</v>
       </c>
-      <c r="B230" s="254" t="s">
+      <c r="B230" s="251" t="s">
         <v>141</v>
       </c>
       <c r="C230" s="247" t="s">
@@ -34198,7 +34214,7 @@
       <c r="D230" s="179" t="s">
         <v>1683</v>
       </c>
-      <c r="E230" s="254" t="s">
+      <c r="E230" s="251" t="s">
         <v>143</v>
       </c>
       <c r="F230" s="41">
@@ -34233,13 +34249,13 @@
       </c>
     </row>
     <row r="231" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A231" s="254"/>
-      <c r="B231" s="254"/>
+      <c r="A231" s="251"/>
+      <c r="B231" s="251"/>
       <c r="C231" s="247"/>
       <c r="D231" s="179" t="s">
         <v>1684</v>
       </c>
-      <c r="E231" s="254"/>
+      <c r="E231" s="251"/>
       <c r="F231" s="41">
         <v>6</v>
       </c>
@@ -34272,13 +34288,13 @@
       </c>
     </row>
     <row r="232" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A232" s="254"/>
-      <c r="B232" s="254"/>
+      <c r="A232" s="251"/>
+      <c r="B232" s="251"/>
       <c r="C232" s="247"/>
       <c r="D232" s="179" t="s">
         <v>1685</v>
       </c>
-      <c r="E232" s="254"/>
+      <c r="E232" s="251"/>
       <c r="F232" s="41">
         <v>14</v>
       </c>
@@ -34311,13 +34327,13 @@
       </c>
     </row>
     <row r="233" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="254"/>
-      <c r="B233" s="254"/>
+      <c r="A233" s="251"/>
+      <c r="B233" s="251"/>
       <c r="C233" s="247"/>
       <c r="D233" s="179" t="s">
         <v>142</v>
       </c>
-      <c r="E233" s="254"/>
+      <c r="E233" s="251"/>
       <c r="F233" s="41">
         <v>14</v>
       </c>
@@ -34350,10 +34366,10 @@
       </c>
     </row>
     <row r="234" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A234" s="253" t="s">
+      <c r="A234" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="B234" s="253" t="s">
+      <c r="B234" s="256" t="s">
         <v>145</v>
       </c>
       <c r="C234" s="246" t="s">
@@ -34362,7 +34378,7 @@
       <c r="D234" s="52" t="s">
         <v>1686</v>
       </c>
-      <c r="E234" s="253"/>
+      <c r="E234" s="256"/>
       <c r="F234" s="36">
         <v>10</v>
       </c>
@@ -34395,13 +34411,13 @@
       </c>
     </row>
     <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="253"/>
-      <c r="B235" s="253"/>
+      <c r="A235" s="256"/>
+      <c r="B235" s="256"/>
       <c r="C235" s="246"/>
       <c r="D235" s="52" t="s">
         <v>1687</v>
       </c>
-      <c r="E235" s="253"/>
+      <c r="E235" s="256"/>
       <c r="F235" s="36">
         <v>10</v>
       </c>
@@ -34434,13 +34450,13 @@
       </c>
     </row>
     <row r="236" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A236" s="253"/>
-      <c r="B236" s="253"/>
+      <c r="A236" s="256"/>
+      <c r="B236" s="256"/>
       <c r="C236" s="246"/>
       <c r="D236" s="52" t="s">
         <v>1688</v>
       </c>
-      <c r="E236" s="253"/>
+      <c r="E236" s="256"/>
       <c r="F236" s="36">
         <v>10</v>
       </c>
@@ -34473,13 +34489,13 @@
       </c>
     </row>
     <row r="237" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="253"/>
-      <c r="B237" s="253"/>
+      <c r="A237" s="256"/>
+      <c r="B237" s="256"/>
       <c r="C237" s="246"/>
       <c r="D237" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="E237" s="253"/>
+      <c r="E237" s="256"/>
       <c r="F237" s="36">
         <v>10</v>
       </c>
@@ -34559,10 +34575,10 @@
       </c>
     </row>
     <row r="239" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="253" t="s">
+      <c r="A239" s="256" t="s">
         <v>151</v>
       </c>
-      <c r="B239" s="253" t="s">
+      <c r="B239" s="256" t="s">
         <v>152</v>
       </c>
       <c r="C239" s="246" t="s">
@@ -34571,7 +34587,7 @@
       <c r="D239" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="E239" s="253" t="s">
+      <c r="E239" s="256" t="s">
         <v>153</v>
       </c>
       <c r="F239" s="36">
@@ -34606,13 +34622,13 @@
       </c>
     </row>
     <row r="240" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A240" s="253"/>
-      <c r="B240" s="253"/>
+      <c r="A240" s="256"/>
+      <c r="B240" s="256"/>
       <c r="C240" s="246"/>
       <c r="D240" s="52" t="s">
         <v>1045</v>
       </c>
-      <c r="E240" s="253"/>
+      <c r="E240" s="256"/>
       <c r="F240" s="36">
         <v>14</v>
       </c>
@@ -34645,10 +34661,10 @@
       </c>
     </row>
     <row r="241" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A241" s="254" t="s">
+      <c r="A241" s="251" t="s">
         <v>154</v>
       </c>
-      <c r="B241" s="254" t="s">
+      <c r="B241" s="251" t="s">
         <v>155</v>
       </c>
       <c r="C241" s="247" t="s">
@@ -34657,7 +34673,7 @@
       <c r="D241" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="E241" s="254" t="s">
+      <c r="E241" s="251" t="s">
         <v>156</v>
       </c>
       <c r="F241" s="35">
@@ -34694,13 +34710,13 @@
       </c>
     </row>
     <row r="242" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A242" s="254"/>
-      <c r="B242" s="254"/>
+      <c r="A242" s="251"/>
+      <c r="B242" s="251"/>
       <c r="C242" s="247"/>
       <c r="D242" s="179" t="s">
         <v>1048</v>
       </c>
-      <c r="E242" s="254"/>
+      <c r="E242" s="251"/>
       <c r="F242" s="35">
         <v>6</v>
       </c>
@@ -34733,10 +34749,10 @@
       </c>
     </row>
     <row r="243" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A243" s="253" t="s">
+      <c r="A243" s="256" t="s">
         <v>157</v>
       </c>
-      <c r="B243" s="253" t="s">
+      <c r="B243" s="256" t="s">
         <v>158</v>
       </c>
       <c r="C243" s="246" t="s">
@@ -34745,7 +34761,7 @@
       <c r="D243" s="52" t="s">
         <v>1689</v>
       </c>
-      <c r="E243" s="253" t="s">
+      <c r="E243" s="256" t="s">
         <v>159</v>
       </c>
       <c r="F243" s="36">
@@ -34782,13 +34798,13 @@
       </c>
     </row>
     <row r="244" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A244" s="253"/>
-      <c r="B244" s="253"/>
+      <c r="A244" s="256"/>
+      <c r="B244" s="256"/>
       <c r="C244" s="246"/>
       <c r="D244" s="52" t="s">
         <v>1048</v>
       </c>
-      <c r="E244" s="253"/>
+      <c r="E244" s="256"/>
       <c r="F244" s="36">
         <v>6</v>
       </c>
@@ -35246,52 +35262,81 @@
   </sheetData>
   <autoFilter ref="A3:K27"/>
   <mergeCells count="145">
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="B163:B165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="A166:A168"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="A170:A176"/>
-    <mergeCell ref="B170:B176"/>
-    <mergeCell ref="E170:E176"/>
-    <mergeCell ref="E177:E183"/>
-    <mergeCell ref="A177:A183"/>
-    <mergeCell ref="B177:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C166:C169"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="E239:E240"/>
+    <mergeCell ref="A239:A240"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="E243:E244"/>
+    <mergeCell ref="A241:A242"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="E241:E242"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E148:E151"/>
+    <mergeCell ref="B141:B147"/>
+    <mergeCell ref="A141:A147"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C141:C147"/>
+    <mergeCell ref="C148:C151"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="E16:E27"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="C4:C15"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E55:E56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="E234:E237"/>
@@ -35316,81 +35361,52 @@
     <mergeCell ref="A223:A224"/>
     <mergeCell ref="B223:B224"/>
     <mergeCell ref="C211:C214"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="E4:E15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="E16:E27"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C16:C27"/>
-    <mergeCell ref="C4:C15"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E148:E151"/>
-    <mergeCell ref="B141:B147"/>
-    <mergeCell ref="A141:A147"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C141:C147"/>
-    <mergeCell ref="C148:C151"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="E239:E240"/>
-    <mergeCell ref="A239:A240"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="A243:A244"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="E243:E244"/>
-    <mergeCell ref="A241:A242"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="E241:E242"/>
-    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="A166:A168"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="A170:A176"/>
+    <mergeCell ref="B170:B176"/>
+    <mergeCell ref="E170:E176"/>
+    <mergeCell ref="E177:E183"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="B177:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="A184:A185"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -36480,10 +36496,10 @@
       <c r="A20" s="263" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="269" t="s">
+      <c r="B20" s="266" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="254" t="s">
+      <c r="C20" s="251" t="s">
         <v>436</v>
       </c>
       <c r="D20" s="213" t="s">
@@ -36551,8 +36567,8 @@
     </row>
     <row r="21" spans="1:44" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="263"/>
-      <c r="B21" s="269"/>
-      <c r="C21" s="254"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="251"/>
       <c r="D21" s="213"/>
       <c r="E21" s="171" t="s">
         <v>815</v>
@@ -36663,10 +36679,10 @@
       <c r="B24" s="263" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="264" t="s">
+      <c r="C24" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="265" t="s">
+      <c r="D24" s="270" t="s">
         <v>220</v>
       </c>
       <c r="E24" s="180" t="s">
@@ -36734,8 +36750,8 @@
     <row r="25" spans="1:44" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="263"/>
       <c r="B25" s="263"/>
-      <c r="C25" s="264"/>
-      <c r="D25" s="265"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="270"/>
       <c r="E25" s="180" t="s">
         <v>1603</v>
       </c>
@@ -36799,8 +36815,8 @@
     <row r="26" spans="1:44" s="68" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="263"/>
       <c r="B26" s="263"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="265"/>
+      <c r="C26" s="265"/>
+      <c r="D26" s="270"/>
       <c r="E26" s="180" t="s">
         <v>174</v>
       </c>
@@ -37415,16 +37431,16 @@
       <c r="AR36" s="80"/>
     </row>
     <row r="37" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="270" t="s">
+      <c r="A37" s="267" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="255" t="s">
+      <c r="B37" s="253" t="s">
         <v>439</v>
       </c>
-      <c r="C37" s="266" t="s">
+      <c r="C37" s="268" t="s">
         <v>448</v>
       </c>
-      <c r="D37" s="266" t="s">
+      <c r="D37" s="268" t="s">
         <v>220</v>
       </c>
       <c r="E37" s="188" t="s">
@@ -37458,10 +37474,10 @@
       <c r="O37" s="176"/>
     </row>
     <row r="38" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="270"/>
-      <c r="B38" s="255"/>
-      <c r="C38" s="266"/>
-      <c r="D38" s="266"/>
+      <c r="A38" s="267"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="268"/>
+      <c r="D38" s="268"/>
       <c r="E38" s="188" t="s">
         <v>1611</v>
       </c>
@@ -37493,10 +37509,10 @@
       <c r="O38" s="176"/>
     </row>
     <row r="39" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="270"/>
-      <c r="B39" s="255"/>
-      <c r="C39" s="266"/>
-      <c r="D39" s="266"/>
+      <c r="A39" s="267"/>
+      <c r="B39" s="253"/>
+      <c r="C39" s="268"/>
+      <c r="D39" s="268"/>
       <c r="E39" s="188" t="s">
         <v>1612</v>
       </c>
@@ -37528,10 +37544,10 @@
       <c r="O39" s="176"/>
     </row>
     <row r="40" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="270"/>
-      <c r="B40" s="255"/>
-      <c r="C40" s="266"/>
-      <c r="D40" s="266"/>
+      <c r="A40" s="267"/>
+      <c r="B40" s="253"/>
+      <c r="C40" s="268"/>
+      <c r="D40" s="268"/>
       <c r="E40" s="188" t="s">
         <v>1613</v>
       </c>
@@ -37563,10 +37579,10 @@
       <c r="O40" s="176"/>
     </row>
     <row r="41" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="270"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="266"/>
-      <c r="D41" s="266"/>
+      <c r="A41" s="267"/>
+      <c r="B41" s="253"/>
+      <c r="C41" s="268"/>
+      <c r="D41" s="268"/>
       <c r="E41" s="188" t="s">
         <v>1614</v>
       </c>
@@ -37598,10 +37614,10 @@
       <c r="O41" s="176"/>
     </row>
     <row r="42" spans="1:44" s="80" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="270"/>
-      <c r="B42" s="255"/>
-      <c r="C42" s="266"/>
-      <c r="D42" s="266"/>
+      <c r="A42" s="267"/>
+      <c r="B42" s="253"/>
+      <c r="C42" s="268"/>
+      <c r="D42" s="268"/>
       <c r="E42" s="188" t="s">
         <v>1615</v>
       </c>
@@ -37769,10 +37785,10 @@
       <c r="AR44" s="80"/>
     </row>
     <row r="45" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="268" t="s">
+      <c r="A45" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="268" t="s">
+      <c r="B45" s="262" t="s">
         <v>441</v>
       </c>
       <c r="C45" s="261" t="s">
@@ -37784,7 +37800,7 @@
       <c r="E45" s="177" t="s">
         <v>1692</v>
       </c>
-      <c r="F45" s="262"/>
+      <c r="F45" s="269"/>
       <c r="G45" s="67">
         <v>6</v>
       </c>
@@ -37812,14 +37828,14 @@
       <c r="O45" s="176"/>
     </row>
     <row r="46" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="267"/>
-      <c r="B46" s="267"/>
-      <c r="C46" s="262"/>
+      <c r="A46" s="271"/>
+      <c r="B46" s="271"/>
+      <c r="C46" s="269"/>
       <c r="D46" s="261"/>
       <c r="E46" s="177" t="s">
         <v>1607</v>
       </c>
-      <c r="F46" s="262"/>
+      <c r="F46" s="269"/>
       <c r="G46" s="67">
         <v>6</v>
       </c>
@@ -37847,14 +37863,14 @@
       <c r="O46" s="176"/>
     </row>
     <row r="47" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="267"/>
-      <c r="B47" s="267"/>
-      <c r="C47" s="262"/>
+      <c r="A47" s="271"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="269"/>
       <c r="D47" s="261"/>
       <c r="E47" s="177" t="s">
         <v>1226</v>
       </c>
-      <c r="F47" s="262"/>
+      <c r="F47" s="269"/>
       <c r="G47" s="67">
         <v>6</v>
       </c>
@@ -37930,13 +37946,13 @@
       <c r="AR48" s="80"/>
     </row>
     <row r="49" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="267" t="s">
+      <c r="A49" s="271" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="267" t="s">
+      <c r="B49" s="271" t="s">
         <v>443</v>
       </c>
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="269" t="s">
         <v>450</v>
       </c>
       <c r="D49" s="261" t="s">
@@ -37972,9 +37988,9 @@
       <c r="O49" s="176"/>
     </row>
     <row r="50" spans="1:44" s="164" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="267"/>
-      <c r="B50" s="267"/>
-      <c r="C50" s="262"/>
+      <c r="A50" s="271"/>
+      <c r="B50" s="271"/>
+      <c r="C50" s="269"/>
       <c r="D50" s="261"/>
       <c r="E50" s="190" t="s">
         <v>1667</v>
@@ -38039,10 +38055,10 @@
       <c r="A51" s="263" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="271" t="s">
+      <c r="B51" s="264" t="s">
         <v>1658</v>
       </c>
-      <c r="C51" s="264" t="s">
+      <c r="C51" s="265" t="s">
         <v>817</v>
       </c>
       <c r="D51" s="189" t="s">
@@ -38113,7 +38129,7 @@
     <row r="52" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="263"/>
       <c r="B52" s="263"/>
-      <c r="C52" s="264"/>
+      <c r="C52" s="265"/>
       <c r="D52" s="217"/>
       <c r="E52" s="189" t="s">
         <v>1645</v>
@@ -38151,7 +38167,7 @@
     <row r="53" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="263"/>
       <c r="B53" s="263"/>
-      <c r="C53" s="264"/>
+      <c r="C53" s="265"/>
       <c r="D53" s="217"/>
       <c r="E53" s="189" t="s">
         <v>1646</v>
@@ -38189,7 +38205,7 @@
     <row r="54" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="263"/>
       <c r="B54" s="263"/>
-      <c r="C54" s="264"/>
+      <c r="C54" s="265"/>
       <c r="D54" s="217"/>
       <c r="E54" s="189" t="s">
         <v>1643</v>
@@ -38227,7 +38243,7 @@
     <row r="55" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="263"/>
       <c r="B55" s="263"/>
-      <c r="C55" s="264"/>
+      <c r="C55" s="265"/>
       <c r="D55" s="217"/>
       <c r="E55" s="189" t="s">
         <v>1647</v>
@@ -38265,7 +38281,7 @@
     <row r="56" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="263"/>
       <c r="B56" s="263"/>
-      <c r="C56" s="264"/>
+      <c r="C56" s="265"/>
       <c r="D56" s="217"/>
       <c r="E56" s="189" t="s">
         <v>1648</v>
@@ -38303,7 +38319,7 @@
     <row r="57" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="263"/>
       <c r="B57" s="263"/>
-      <c r="C57" s="264"/>
+      <c r="C57" s="265"/>
       <c r="D57" s="217"/>
       <c r="E57" s="189" t="s">
         <v>194</v>
@@ -38341,7 +38357,7 @@
     <row r="58" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="263"/>
       <c r="B58" s="263"/>
-      <c r="C58" s="264"/>
+      <c r="C58" s="265"/>
       <c r="D58" s="217"/>
       <c r="E58" s="189" t="s">
         <v>1649</v>
@@ -38379,7 +38395,7 @@
     <row r="59" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="263"/>
       <c r="B59" s="263"/>
-      <c r="C59" s="264"/>
+      <c r="C59" s="265"/>
       <c r="D59" s="217"/>
       <c r="E59" s="189" t="s">
         <v>1650</v>
@@ -38417,7 +38433,7 @@
     <row r="60" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="263"/>
       <c r="B60" s="263"/>
-      <c r="C60" s="264"/>
+      <c r="C60" s="265"/>
       <c r="D60" s="217"/>
       <c r="E60" s="189" t="s">
         <v>1651</v>
@@ -38455,7 +38471,7 @@
     <row r="61" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="263"/>
       <c r="B61" s="263"/>
-      <c r="C61" s="264"/>
+      <c r="C61" s="265"/>
       <c r="D61" s="217"/>
       <c r="E61" s="189" t="s">
         <v>1652</v>
@@ -38493,7 +38509,7 @@
     <row r="62" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="263"/>
       <c r="B62" s="263"/>
-      <c r="C62" s="264"/>
+      <c r="C62" s="265"/>
       <c r="D62" s="217"/>
       <c r="E62" s="189" t="s">
         <v>1653</v>
@@ -38531,7 +38547,7 @@
     <row r="63" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="263"/>
       <c r="B63" s="263"/>
-      <c r="C63" s="264"/>
+      <c r="C63" s="265"/>
       <c r="D63" s="217"/>
       <c r="E63" s="189" t="s">
         <v>1654</v>
@@ -38569,7 +38585,7 @@
     <row r="64" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="263"/>
       <c r="B64" s="263"/>
-      <c r="C64" s="264"/>
+      <c r="C64" s="265"/>
       <c r="D64" s="217"/>
       <c r="E64" s="189" t="s">
         <v>1655</v>
@@ -38607,7 +38623,7 @@
     <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="263"/>
       <c r="B65" s="263"/>
-      <c r="C65" s="264"/>
+      <c r="C65" s="265"/>
       <c r="D65" s="217"/>
       <c r="E65" s="189" t="s">
         <v>1656</v>
@@ -38645,7 +38661,7 @@
     <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="263"/>
       <c r="B66" s="263"/>
-      <c r="C66" s="264"/>
+      <c r="C66" s="265"/>
       <c r="D66" s="217"/>
       <c r="E66" s="189" t="s">
         <v>1657</v>
@@ -38683,7 +38699,7 @@
     <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="263"/>
       <c r="B67" s="263"/>
-      <c r="C67" s="264"/>
+      <c r="C67" s="265"/>
       <c r="D67" s="217"/>
       <c r="E67" s="189" t="s">
         <v>1694</v>
@@ -38719,10 +38735,10 @@
       <c r="O67" s="176"/>
     </row>
     <row r="68" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="268" t="s">
+      <c r="A68" s="262" t="s">
         <v>221</v>
       </c>
-      <c r="B68" s="268" t="s">
+      <c r="B68" s="262" t="s">
         <v>1659</v>
       </c>
       <c r="C68" s="261" t="s">
@@ -38734,7 +38750,7 @@
       <c r="E68" s="190" t="s">
         <v>1662</v>
       </c>
-      <c r="F68" s="266"/>
+      <c r="F68" s="268"/>
       <c r="G68" s="67">
         <v>11</v>
       </c>
@@ -38765,14 +38781,14 @@
       <c r="O68" s="176"/>
     </row>
     <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="268"/>
-      <c r="B69" s="268"/>
+      <c r="A69" s="262"/>
+      <c r="B69" s="262"/>
       <c r="C69" s="261"/>
       <c r="D69" s="261"/>
       <c r="E69" s="190" t="s">
         <v>1663</v>
       </c>
-      <c r="F69" s="266"/>
+      <c r="F69" s="268"/>
       <c r="G69" s="164">
         <v>11</v>
       </c>
@@ -38855,14 +38871,14 @@
       <c r="O69" s="176"/>
     </row>
     <row r="70" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="268"/>
-      <c r="B70" s="268"/>
+      <c r="A70" s="262"/>
+      <c r="B70" s="262"/>
       <c r="C70" s="261"/>
       <c r="D70" s="261"/>
       <c r="E70" s="190" t="s">
         <v>1664</v>
       </c>
-      <c r="F70" s="266"/>
+      <c r="F70" s="268"/>
       <c r="G70" s="164">
         <v>11</v>
       </c>
@@ -39047,18 +39063,6 @@
   </sheetData>
   <autoFilter ref="A3:F3"/>
   <mergeCells count="28">
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A51:A67"/>
-    <mergeCell ref="B51:B67"/>
-    <mergeCell ref="C51:C67"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="F45:F47"/>
@@ -39075,6 +39079,18 @@
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A51:A67"/>
+    <mergeCell ref="B51:B67"/>
+    <mergeCell ref="C51:C67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -39083,10 +39099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:P1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39459,6 +39475,94 @@
 OFFSET($A7,-1,0)),
 $A7)</f>
         <v>HOTEL_REGISTRY_NUMBER</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="196" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B8" s="250" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C8" s="250" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="250" t="s">
+        <v>2560</v>
+      </c>
+      <c r="N8" s="95" t="str">
+        <f ca="1">IF(ISBLANK($A8),
+IF(ISBLANK(OFFSET($A8,-1,0)),
+IF(ISBLANK(OFFSET($A8,-2,0)),
+IF(ISBLANK(OFFSET($A8,-3,0)),
+IF(ISBLANK(OFFSET($A8,-4,0)),
+IF(ISBLANK(OFFSET($A8,-5,0)),
+IF(ISBLANK(OFFSET($A8,-6,0)),
+IF(ISBLANK(OFFSET($A8,-7,0)),
+IF(ISBLANK(OFFSET($A8,-8,0)),
+IF(ISBLANK(OFFSET($A8,-9,0)),
+IF(ISBLANK(OFFSET($A8,-10,0)),
+IF(ISBLANK(OFFSET($A8,-11,0)),
+IF(ISBLANK(OFFSET($A8,-12,0)),
+"test",
+OFFSET($A8,-12,0)),
+OFFSET($A8,-11,0)),
+OFFSET($A8,-10,0)),
+OFFSET($A8,-9,0)),
+OFFSET($A8,-8,0)),
+OFFSET($A8,-7,0)),
+OFFSET($A8,-6,0)),
+OFFSET($A8,-5,0)),
+OFFSET($A8,-4,0)),
+OFFSET($A8,-3,0)),
+OFFSET($A8,-2,0)),
+OFFSET($A8,-1,0)),
+$A8)</f>
+        <v>NUMBER_OF_BEDROOMS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="196" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B9" s="250" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C9" s="250" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="250" t="s">
+        <v>2561</v>
+      </c>
+      <c r="N9" s="95" t="str">
+        <f ca="1">IF(ISBLANK($A9),
+IF(ISBLANK(OFFSET($A9,-1,0)),
+IF(ISBLANK(OFFSET($A9,-2,0)),
+IF(ISBLANK(OFFSET($A9,-3,0)),
+IF(ISBLANK(OFFSET($A9,-4,0)),
+IF(ISBLANK(OFFSET($A9,-5,0)),
+IF(ISBLANK(OFFSET($A9,-6,0)),
+IF(ISBLANK(OFFSET($A9,-7,0)),
+IF(ISBLANK(OFFSET($A9,-8,0)),
+IF(ISBLANK(OFFSET($A9,-9,0)),
+IF(ISBLANK(OFFSET($A9,-10,0)),
+IF(ISBLANK(OFFSET($A9,-11,0)),
+IF(ISBLANK(OFFSET($A9,-12,0)),
+"test",
+OFFSET($A9,-12,0)),
+OFFSET($A9,-11,0)),
+OFFSET($A9,-10,0)),
+OFFSET($A9,-9,0)),
+OFFSET($A9,-8,0)),
+OFFSET($A9,-7,0)),
+OFFSET($A9,-6,0)),
+OFFSET($A9,-5,0)),
+OFFSET($A9,-4,0)),
+OFFSET($A9,-3,0)),
+OFFSET($A9,-2,0)),
+OFFSET($A9,-1,0)),
+$A9)</f>
+        <v>NUMBER_OF_BATHROOMS</v>
       </c>
     </row>
   </sheetData>
@@ -39574,7 +39678,7 @@
       <c r="D4" s="218" t="s">
         <v>1441</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="251" t="s">
         <v>339</v>
       </c>
       <c r="G4" s="66">
@@ -39668,7 +39772,7 @@
       <c r="D5" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="251"/>
       <c r="G5" s="66">
         <v>3</v>
       </c>
@@ -39734,7 +39838,7 @@
       <c r="D6" s="223" t="s">
         <v>1053</v>
       </c>
-      <c r="E6" s="254"/>
+      <c r="E6" s="251"/>
       <c r="G6" s="66">
         <v>197</v>
       </c>
@@ -39774,7 +39878,7 @@
       <c r="D7" s="218" t="s">
         <v>1030</v>
       </c>
-      <c r="E7" s="254"/>
+      <c r="E7" s="251"/>
       <c r="G7" s="66">
         <v>197</v>
       </c>
@@ -39818,7 +39922,7 @@
       <c r="D8" s="218" t="s">
         <v>1029</v>
       </c>
-      <c r="E8" s="254"/>
+      <c r="E8" s="251"/>
       <c r="G8" s="66">
         <v>197</v>
       </c>
@@ -39862,7 +39966,7 @@
       <c r="D9" s="218" t="s">
         <v>1028</v>
       </c>
-      <c r="E9" s="254"/>
+      <c r="E9" s="251"/>
       <c r="G9" s="66">
         <v>197</v>
       </c>
@@ -39906,7 +40010,7 @@
       <c r="D10" s="218" t="s">
         <v>1590</v>
       </c>
-      <c r="E10" s="254"/>
+      <c r="E10" s="251"/>
       <c r="G10" s="66">
         <v>197</v>
       </c>
@@ -39950,7 +40054,7 @@
       <c r="D11" s="218" t="s">
         <v>1669</v>
       </c>
-      <c r="E11" s="254"/>
+      <c r="E11" s="251"/>
       <c r="G11" s="66">
         <v>197</v>
       </c>
@@ -39994,7 +40098,7 @@
       <c r="D12" s="218" t="s">
         <v>1670</v>
       </c>
-      <c r="E12" s="254"/>
+      <c r="E12" s="251"/>
       <c r="G12" s="66">
         <v>197</v>
       </c>
@@ -40038,7 +40142,7 @@
       <c r="D13" s="218" t="s">
         <v>1671</v>
       </c>
-      <c r="E13" s="254"/>
+      <c r="E13" s="251"/>
       <c r="G13" s="66">
         <v>197</v>
       </c>
@@ -40082,7 +40186,7 @@
       <c r="D14" s="218" t="s">
         <v>1672</v>
       </c>
-      <c r="E14" s="254"/>
+      <c r="E14" s="251"/>
       <c r="G14" s="66">
         <v>197</v>
       </c>
@@ -40124,7 +40228,7 @@
       <c r="D15" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="254"/>
+      <c r="E15" s="251"/>
       <c r="G15" s="66">
         <v>197</v>
       </c>
@@ -40166,13 +40270,13 @@
       <c r="B16" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="253" t="s">
+      <c r="C16" s="256" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E16" s="253" t="s">
+      <c r="E16" s="256" t="s">
         <v>627</v>
       </c>
       <c r="G16" s="65">
@@ -40210,11 +40314,11 @@
     <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="212"/>
-      <c r="C17" s="253"/>
+      <c r="C17" s="256"/>
       <c r="D17" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="253"/>
+      <c r="E17" s="256"/>
       <c r="G17" s="65">
         <v>3</v>
       </c>
@@ -40250,11 +40354,11 @@
     <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="212"/>
       <c r="B18" s="212"/>
-      <c r="C18" s="253"/>
+      <c r="C18" s="256"/>
       <c r="D18" s="222" t="s">
         <v>1053</v>
       </c>
-      <c r="E18" s="253"/>
+      <c r="E18" s="256"/>
       <c r="G18" s="65">
         <v>197</v>
       </c>
@@ -40290,11 +40394,11 @@
     <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="212"/>
       <c r="B19" s="212"/>
-      <c r="C19" s="253"/>
+      <c r="C19" s="256"/>
       <c r="D19" s="52" t="s">
         <v>1030</v>
       </c>
-      <c r="E19" s="253"/>
+      <c r="E19" s="256"/>
       <c r="G19" s="65">
         <v>197</v>
       </c>
@@ -40334,11 +40438,11 @@
     <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="212"/>
       <c r="B20" s="212"/>
-      <c r="C20" s="253"/>
+      <c r="C20" s="256"/>
       <c r="D20" s="52" t="s">
         <v>1029</v>
       </c>
-      <c r="E20" s="253"/>
+      <c r="E20" s="256"/>
       <c r="G20" s="65">
         <v>197</v>
       </c>
@@ -40378,11 +40482,11 @@
     <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="212"/>
       <c r="B21" s="212"/>
-      <c r="C21" s="253"/>
+      <c r="C21" s="256"/>
       <c r="D21" s="52" t="s">
         <v>1028</v>
       </c>
-      <c r="E21" s="253"/>
+      <c r="E21" s="256"/>
       <c r="G21" s="65">
         <v>197</v>
       </c>
@@ -40422,11 +40526,11 @@
     <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="212"/>
       <c r="B22" s="212"/>
-      <c r="C22" s="253"/>
+      <c r="C22" s="256"/>
       <c r="D22" s="52" t="s">
         <v>1590</v>
       </c>
-      <c r="E22" s="253"/>
+      <c r="E22" s="256"/>
       <c r="G22" s="65">
         <v>197</v>
       </c>
@@ -40466,11 +40570,11 @@
     <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="212"/>
       <c r="B23" s="212"/>
-      <c r="C23" s="253"/>
+      <c r="C23" s="256"/>
       <c r="D23" s="52" t="s">
         <v>1669</v>
       </c>
-      <c r="E23" s="253"/>
+      <c r="E23" s="256"/>
       <c r="G23" s="65">
         <v>197</v>
       </c>
@@ -40510,11 +40614,11 @@
     <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="212"/>
       <c r="B24" s="212"/>
-      <c r="C24" s="253"/>
+      <c r="C24" s="256"/>
       <c r="D24" s="52" t="s">
         <v>1670</v>
       </c>
-      <c r="E24" s="253"/>
+      <c r="E24" s="256"/>
       <c r="G24" s="65">
         <v>197</v>
       </c>
@@ -40554,11 +40658,11 @@
     <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="212"/>
       <c r="B25" s="212"/>
-      <c r="C25" s="253"/>
+      <c r="C25" s="256"/>
       <c r="D25" s="52" t="s">
         <v>1671</v>
       </c>
-      <c r="E25" s="253"/>
+      <c r="E25" s="256"/>
       <c r="G25" s="65">
         <v>197</v>
       </c>
@@ -40598,11 +40702,11 @@
     <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="212"/>
       <c r="B26" s="212"/>
-      <c r="C26" s="253"/>
+      <c r="C26" s="256"/>
       <c r="D26" s="52" t="s">
         <v>1672</v>
       </c>
-      <c r="E26" s="253"/>
+      <c r="E26" s="256"/>
       <c r="G26" s="65">
         <v>197</v>
       </c>
@@ -40635,11 +40739,11 @@
     <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="212"/>
       <c r="B27" s="212"/>
-      <c r="C27" s="253"/>
+      <c r="C27" s="256"/>
       <c r="D27" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="253"/>
+      <c r="E27" s="256"/>
       <c r="G27" s="65">
         <v>197</v>
       </c>
@@ -40764,7 +40868,7 @@
       <c r="D31" s="218" t="s">
         <v>1442</v>
       </c>
-      <c r="E31" s="254" t="s">
+      <c r="E31" s="251" t="s">
         <v>228</v>
       </c>
       <c r="G31" s="66">
@@ -40805,7 +40909,7 @@
       <c r="D32" s="218" t="s">
         <v>1443</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="251"/>
       <c r="G32" s="66">
         <v>3</v>
       </c>
@@ -40844,7 +40948,7 @@
       <c r="D33" s="218" t="s">
         <v>1444</v>
       </c>
-      <c r="E33" s="254"/>
+      <c r="E33" s="251"/>
       <c r="G33" s="66">
         <v>3</v>
       </c>
@@ -40883,7 +40987,7 @@
       <c r="D34" s="218" t="s">
         <v>1445</v>
       </c>
-      <c r="E34" s="254"/>
+      <c r="E34" s="251"/>
       <c r="G34" s="66">
         <v>3</v>
       </c>
@@ -40922,7 +41026,7 @@
       <c r="D35" s="218" t="s">
         <v>1446</v>
       </c>
-      <c r="E35" s="254"/>
+      <c r="E35" s="251"/>
       <c r="G35" s="66">
         <v>3</v>
       </c>
@@ -41008,7 +41112,7 @@
       <c r="D37" s="218" t="s">
         <v>1447</v>
       </c>
-      <c r="E37" s="254" t="s">
+      <c r="E37" s="251" t="s">
         <v>233</v>
       </c>
       <c r="G37" s="66">
@@ -41075,7 +41179,7 @@
       <c r="D38" s="218" t="s">
         <v>1448</v>
       </c>
-      <c r="E38" s="254"/>
+      <c r="E38" s="251"/>
       <c r="G38" s="66">
         <v>3</v>
       </c>
@@ -41114,7 +41218,7 @@
       <c r="D39" s="218" t="s">
         <v>1449</v>
       </c>
-      <c r="E39" s="254"/>
+      <c r="E39" s="251"/>
       <c r="G39" s="66">
         <v>3</v>
       </c>
@@ -41153,7 +41257,7 @@
       <c r="D40" s="218" t="s">
         <v>1695</v>
       </c>
-      <c r="E40" s="254"/>
+      <c r="E40" s="251"/>
       <c r="G40" s="66">
         <v>3</v>
       </c>
@@ -41192,7 +41296,7 @@
       <c r="D41" s="218" t="s">
         <v>635</v>
       </c>
-      <c r="E41" s="254"/>
+      <c r="E41" s="251"/>
       <c r="G41" s="66">
         <v>3</v>
       </c>
@@ -41231,13 +41335,13 @@
       <c r="B42" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="253" t="s">
+      <c r="C42" s="256" t="s">
         <v>220</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>1450</v>
       </c>
-      <c r="E42" s="253" t="s">
+      <c r="E42" s="256" t="s">
         <v>237</v>
       </c>
       <c r="G42" s="65">
@@ -41272,11 +41376,11 @@
     <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="212"/>
       <c r="B43" s="212"/>
-      <c r="C43" s="253"/>
+      <c r="C43" s="256"/>
       <c r="D43" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="E43" s="253"/>
+      <c r="E43" s="256"/>
       <c r="G43" s="65">
         <v>3</v>
       </c>
@@ -41309,11 +41413,11 @@
     <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="212"/>
       <c r="B44" s="212"/>
-      <c r="C44" s="253"/>
+      <c r="C44" s="256"/>
       <c r="D44" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="E44" s="253"/>
+      <c r="E44" s="256"/>
       <c r="G44" s="65">
         <v>3</v>
       </c>
@@ -41524,7 +41628,7 @@
       <c r="D49" s="213" t="s">
         <v>1452</v>
       </c>
-      <c r="E49" s="254"/>
+      <c r="E49" s="251"/>
       <c r="G49" s="66">
         <v>3</v>
       </c>
@@ -41563,7 +41667,7 @@
       <c r="D50" s="213" t="s">
         <v>1094</v>
       </c>
-      <c r="E50" s="254"/>
+      <c r="E50" s="251"/>
       <c r="G50" s="66">
         <v>3</v>
       </c>
@@ -41602,7 +41706,7 @@
       <c r="B51" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="253" t="s">
+      <c r="C51" s="256" t="s">
         <v>221</v>
       </c>
       <c r="D51" s="52"/>
@@ -41639,7 +41743,7 @@
     <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="212"/>
       <c r="B52" s="212"/>
-      <c r="C52" s="253"/>
+      <c r="C52" s="256"/>
       <c r="D52" s="52"/>
       <c r="E52" s="46"/>
       <c r="G52" s="65"/>
@@ -41663,7 +41767,7 @@
     <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="212"/>
       <c r="B53" s="212"/>
-      <c r="C53" s="253"/>
+      <c r="C53" s="256"/>
       <c r="D53" s="52"/>
       <c r="E53" s="46"/>
       <c r="G53" s="65"/>
@@ -41731,7 +41835,7 @@
       <c r="D55" s="218" t="s">
         <v>1453</v>
       </c>
-      <c r="E55" s="254" t="s">
+      <c r="E55" s="251" t="s">
         <v>245</v>
       </c>
       <c r="G55" s="66">
@@ -41772,7 +41876,7 @@
       <c r="D56" s="218" t="s">
         <v>1097</v>
       </c>
-      <c r="E56" s="254"/>
+      <c r="E56" s="251"/>
       <c r="G56" s="66">
         <v>3</v>
       </c>
@@ -41858,7 +41962,7 @@
       <c r="D58" s="218" t="s">
         <v>1696</v>
       </c>
-      <c r="E58" s="254" t="s">
+      <c r="E58" s="251" t="s">
         <v>250</v>
       </c>
       <c r="G58" s="66">
@@ -41899,7 +42003,7 @@
       <c r="D59" s="218" t="s">
         <v>1454</v>
       </c>
-      <c r="E59" s="254"/>
+      <c r="E59" s="251"/>
       <c r="G59" s="66">
         <v>3</v>
       </c>
@@ -41938,7 +42042,7 @@
       <c r="D60" s="218" t="s">
         <v>1101</v>
       </c>
-      <c r="E60" s="254"/>
+      <c r="E60" s="251"/>
       <c r="G60" s="66">
         <v>3</v>
       </c>
@@ -41983,7 +42087,7 @@
       <c r="D61" s="52" t="s">
         <v>1697</v>
       </c>
-      <c r="E61" s="253" t="s">
+      <c r="E61" s="256" t="s">
         <v>253</v>
       </c>
       <c r="G61" s="65">
@@ -42022,7 +42126,7 @@
       <c r="D62" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="E62" s="253"/>
+      <c r="E62" s="256"/>
       <c r="G62" s="65">
         <v>3</v>
       </c>
@@ -42067,7 +42171,7 @@
       <c r="D63" s="218" t="s">
         <v>1697</v>
       </c>
-      <c r="E63" s="254" t="s">
+      <c r="E63" s="251" t="s">
         <v>256</v>
       </c>
       <c r="G63" s="66">
@@ -42108,7 +42212,7 @@
       <c r="D64" s="218" t="s">
         <v>1698</v>
       </c>
-      <c r="E64" s="254"/>
+      <c r="E64" s="251"/>
       <c r="G64" s="66">
         <v>3</v>
       </c>
@@ -42147,7 +42251,7 @@
       <c r="D65" s="218" t="s">
         <v>1104</v>
       </c>
-      <c r="E65" s="254"/>
+      <c r="E65" s="251"/>
       <c r="G65" s="66">
         <v>3</v>
       </c>
@@ -42192,7 +42296,7 @@
       <c r="D66" s="52" t="s">
         <v>1455</v>
       </c>
-      <c r="E66" s="253" t="s">
+      <c r="E66" s="256" t="s">
         <v>628</v>
       </c>
       <c r="G66" s="65">
@@ -42231,7 +42335,7 @@
       <c r="D67" s="52" t="s">
         <v>1699</v>
       </c>
-      <c r="E67" s="253"/>
+      <c r="E67" s="256"/>
       <c r="G67" s="65">
         <v>3</v>
       </c>
@@ -42268,7 +42372,7 @@
       <c r="D68" s="52" t="s">
         <v>636</v>
       </c>
-      <c r="E68" s="253"/>
+      <c r="E68" s="256"/>
       <c r="G68" s="65">
         <v>3</v>
       </c>
@@ -42546,7 +42650,7 @@
       <c r="D75" s="218" t="s">
         <v>1700</v>
       </c>
-      <c r="E75" s="254" t="s">
+      <c r="E75" s="251" t="s">
         <v>264</v>
       </c>
       <c r="G75" s="66">
@@ -42587,7 +42691,7 @@
       <c r="D76" s="218" t="s">
         <v>1701</v>
       </c>
-      <c r="E76" s="254"/>
+      <c r="E76" s="251"/>
       <c r="G76" s="66">
         <v>3</v>
       </c>
@@ -42626,7 +42730,7 @@
       <c r="D77" s="218" t="s">
         <v>1111</v>
       </c>
-      <c r="E77" s="254"/>
+      <c r="E77" s="251"/>
       <c r="G77" s="66">
         <v>3</v>
       </c>
@@ -42755,7 +42859,7 @@
       <c r="D80" s="52" t="s">
         <v>1702</v>
       </c>
-      <c r="E80" s="253" t="s">
+      <c r="E80" s="256" t="s">
         <v>271</v>
       </c>
       <c r="G80" s="65">
@@ -42794,7 +42898,7 @@
       <c r="D81" s="52" t="s">
         <v>1456</v>
       </c>
-      <c r="E81" s="253"/>
+      <c r="E81" s="256"/>
       <c r="G81" s="65">
         <v>3</v>
       </c>
@@ -42833,7 +42937,7 @@
       <c r="D82" s="52" t="s">
         <v>1457</v>
       </c>
-      <c r="E82" s="253"/>
+      <c r="E82" s="256"/>
       <c r="G82" s="65">
         <v>3</v>
       </c>
@@ -42872,7 +42976,7 @@
       <c r="D83" s="52" t="s">
         <v>1458</v>
       </c>
-      <c r="E83" s="253"/>
+      <c r="E83" s="256"/>
       <c r="G83" s="65">
         <v>3</v>
       </c>
@@ -42911,7 +43015,7 @@
       <c r="D84" s="52" t="s">
         <v>1117</v>
       </c>
-      <c r="E84" s="253"/>
+      <c r="E84" s="256"/>
       <c r="G84" s="65">
         <v>3</v>
       </c>
@@ -42956,7 +43060,7 @@
       <c r="D85" s="218" t="s">
         <v>1123</v>
       </c>
-      <c r="E85" s="254" t="s">
+      <c r="E85" s="251" t="s">
         <v>629</v>
       </c>
       <c r="G85" s="66">
@@ -42997,7 +43101,7 @@
       <c r="D86" s="218" t="s">
         <v>1703</v>
       </c>
-      <c r="E86" s="254"/>
+      <c r="E86" s="251"/>
       <c r="G86" s="66">
         <v>3</v>
       </c>
@@ -43290,7 +43394,7 @@
       <c r="D93" s="52" t="s">
         <v>1706</v>
       </c>
-      <c r="E93" s="253"/>
+      <c r="E93" s="256"/>
       <c r="G93" s="65">
         <v>3</v>
       </c>
@@ -43327,7 +43431,7 @@
       <c r="D94" s="52" t="s">
         <v>1132</v>
       </c>
-      <c r="E94" s="253"/>
+      <c r="E94" s="256"/>
       <c r="G94" s="65">
         <v>3</v>
       </c>
@@ -43454,7 +43558,7 @@
       <c r="D98" s="218" t="s">
         <v>626</v>
       </c>
-      <c r="E98" s="254" t="s">
+      <c r="E98" s="251" t="s">
         <v>357</v>
       </c>
       <c r="G98" s="66">
@@ -43495,7 +43599,7 @@
       <c r="D99" s="218" t="s">
         <v>114</v>
       </c>
-      <c r="E99" s="254"/>
+      <c r="E99" s="251"/>
       <c r="G99" s="66">
         <v>3</v>
       </c>
@@ -43534,7 +43638,7 @@
       <c r="D100" s="218" t="s">
         <v>988</v>
       </c>
-      <c r="E100" s="254"/>
+      <c r="E100" s="251"/>
       <c r="G100" s="66">
         <v>3</v>
       </c>
@@ -43579,7 +43683,7 @@
       <c r="D101" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E101" s="253" t="s">
+      <c r="E101" s="256" t="s">
         <v>358</v>
       </c>
       <c r="G101" s="65">
@@ -43644,7 +43748,7 @@
       <c r="D102" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E102" s="253"/>
+      <c r="E102" s="256"/>
       <c r="G102" s="65">
         <v>3</v>
       </c>
@@ -43683,7 +43787,7 @@
       <c r="D103" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E103" s="253"/>
+      <c r="E103" s="256"/>
       <c r="G103" s="65">
         <v>3</v>
       </c>
@@ -43812,7 +43916,7 @@
       <c r="D106" s="52" t="s">
         <v>1707</v>
       </c>
-      <c r="E106" s="253"/>
+      <c r="E106" s="256"/>
       <c r="G106" s="65">
         <v>3</v>
       </c>
@@ -43849,7 +43953,7 @@
       <c r="D107" s="52" t="s">
         <v>1144</v>
       </c>
-      <c r="E107" s="253"/>
+      <c r="E107" s="256"/>
       <c r="G107" s="65">
         <v>3</v>
       </c>
@@ -43937,7 +44041,7 @@
       <c r="D109" s="52" t="s">
         <v>1708</v>
       </c>
-      <c r="E109" s="253"/>
+      <c r="E109" s="256"/>
       <c r="G109" s="65">
         <v>3</v>
       </c>
@@ -43974,7 +44078,7 @@
       <c r="D110" s="52" t="s">
         <v>1709</v>
       </c>
-      <c r="E110" s="253"/>
+      <c r="E110" s="256"/>
       <c r="G110" s="65">
         <v>3</v>
       </c>
@@ -44013,7 +44117,7 @@
       <c r="D111" s="52" t="s">
         <v>1710</v>
       </c>
-      <c r="E111" s="253"/>
+      <c r="E111" s="256"/>
       <c r="G111" s="65">
         <v>3</v>
       </c>
@@ -44052,7 +44156,7 @@
       <c r="D112" s="52" t="s">
         <v>1148</v>
       </c>
-      <c r="E112" s="253"/>
+      <c r="E112" s="256"/>
       <c r="G112" s="65">
         <v>3</v>
       </c>
@@ -44302,7 +44406,7 @@
       <c r="D119" s="218" t="s">
         <v>1154</v>
       </c>
-      <c r="E119" s="254" t="s">
+      <c r="E119" s="251" t="s">
         <v>293</v>
       </c>
       <c r="G119" s="66">
@@ -44343,7 +44447,7 @@
       <c r="D120" s="218" t="s">
         <v>1155</v>
       </c>
-      <c r="E120" s="254"/>
+      <c r="E120" s="251"/>
       <c r="G120" s="66">
         <v>3</v>
       </c>
@@ -44513,7 +44617,7 @@
       <c r="D124" s="218" t="s">
         <v>1459</v>
       </c>
-      <c r="E124" s="254" t="s">
+      <c r="E124" s="251" t="s">
         <v>302</v>
       </c>
       <c r="G124" s="63">
@@ -44554,7 +44658,7 @@
       <c r="D125" s="218" t="s">
         <v>1460</v>
       </c>
-      <c r="E125" s="254"/>
+      <c r="E125" s="251"/>
       <c r="G125" s="63">
         <v>3</v>
       </c>
@@ -44593,7 +44697,7 @@
       <c r="D126" s="218" t="s">
         <v>1461</v>
       </c>
-      <c r="E126" s="254"/>
+      <c r="E126" s="251"/>
       <c r="G126" s="63">
         <v>3</v>
       </c>
@@ -44632,7 +44736,7 @@
       <c r="D127" s="218" t="s">
         <v>1462</v>
       </c>
-      <c r="E127" s="254"/>
+      <c r="E127" s="251"/>
       <c r="G127" s="63">
         <v>3</v>
       </c>
@@ -44671,7 +44775,7 @@
       <c r="D128" s="218" t="s">
         <v>1463</v>
       </c>
-      <c r="E128" s="254"/>
+      <c r="E128" s="251"/>
       <c r="G128" s="63">
         <v>3</v>
       </c>
@@ -44710,7 +44814,7 @@
       <c r="D129" s="218" t="s">
         <v>1464</v>
       </c>
-      <c r="E129" s="254"/>
+      <c r="E129" s="251"/>
       <c r="G129" s="63">
         <v>3</v>
       </c>
@@ -44749,7 +44853,7 @@
       <c r="D130" s="218" t="s">
         <v>1465</v>
       </c>
-      <c r="E130" s="254"/>
+      <c r="E130" s="251"/>
       <c r="G130" s="63">
         <v>3</v>
       </c>
@@ -44788,7 +44892,7 @@
       <c r="D131" s="218" t="s">
         <v>630</v>
       </c>
-      <c r="E131" s="254"/>
+      <c r="E131" s="251"/>
       <c r="G131" s="63">
         <v>3</v>
       </c>
@@ -44833,7 +44937,7 @@
       <c r="D132" s="52" t="s">
         <v>1165</v>
       </c>
-      <c r="E132" s="253" t="s">
+      <c r="E132" s="256" t="s">
         <v>631</v>
       </c>
       <c r="G132" s="65">
@@ -44872,7 +44976,7 @@
       <c r="D133" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="E133" s="253"/>
+      <c r="E133" s="256"/>
       <c r="G133" s="65">
         <v>3</v>
       </c>
@@ -45236,7 +45340,7 @@
       <c r="D142" s="218" t="s">
         <v>1711</v>
       </c>
-      <c r="E142" s="254" t="s">
+      <c r="E142" s="251" t="s">
         <v>632</v>
       </c>
       <c r="G142" s="66">
@@ -45277,7 +45381,7 @@
       <c r="D143" s="223" t="s">
         <v>633</v>
       </c>
-      <c r="E143" s="254"/>
+      <c r="E143" s="251"/>
       <c r="G143" s="66">
         <v>3</v>
       </c>
@@ -45316,7 +45420,7 @@
       <c r="D144" s="218" t="s">
         <v>1712</v>
       </c>
-      <c r="E144" s="254"/>
+      <c r="E144" s="251"/>
       <c r="G144" s="66">
         <v>3</v>
       </c>
@@ -45355,7 +45459,7 @@
       <c r="D145" s="218" t="s">
         <v>613</v>
       </c>
-      <c r="E145" s="254"/>
+      <c r="E145" s="251"/>
       <c r="G145" s="66">
         <v>3</v>
       </c>
@@ -45394,7 +45498,7 @@
       <c r="D146" s="218" t="s">
         <v>612</v>
       </c>
-      <c r="E146" s="254"/>
+      <c r="E146" s="251"/>
       <c r="G146" s="66">
         <v>3</v>
       </c>
@@ -45433,7 +45537,7 @@
       <c r="D147" s="218" t="s">
         <v>1178</v>
       </c>
-      <c r="E147" s="254"/>
+      <c r="E147" s="251"/>
       <c r="G147" s="66">
         <v>3</v>
       </c>
@@ -45478,7 +45582,7 @@
       <c r="D148" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E148" s="253" t="s">
+      <c r="E148" s="256" t="s">
         <v>313</v>
       </c>
       <c r="G148" s="65">
@@ -45517,7 +45621,7 @@
       <c r="D149" s="52" t="s">
         <v>633</v>
       </c>
-      <c r="E149" s="253"/>
+      <c r="E149" s="256"/>
       <c r="G149" s="65">
         <v>3</v>
       </c>
@@ -45556,7 +45660,7 @@
       <c r="D150" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E150" s="253"/>
+      <c r="E150" s="256"/>
       <c r="G150" s="65">
         <v>3</v>
       </c>
@@ -45601,7 +45705,7 @@
       <c r="D151" s="218" t="s">
         <v>1711</v>
       </c>
-      <c r="E151" s="254" t="s">
+      <c r="E151" s="251" t="s">
         <v>316</v>
       </c>
       <c r="G151" s="66">
@@ -45642,7 +45746,7 @@
       <c r="D152" s="218" t="s">
         <v>1182</v>
       </c>
-      <c r="E152" s="254"/>
+      <c r="E152" s="251"/>
       <c r="G152" s="66">
         <v>3</v>
       </c>
@@ -46281,7 +46385,7 @@
       <c r="D168" s="52" t="s">
         <v>1697</v>
       </c>
-      <c r="E168" s="253" t="s">
+      <c r="E168" s="256" t="s">
         <v>328</v>
       </c>
       <c r="G168" s="65">
@@ -46320,7 +46424,7 @@
       <c r="D169" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="E169" s="253"/>
+      <c r="E169" s="256"/>
       <c r="G169" s="65">
         <v>3</v>
       </c>
@@ -46365,7 +46469,7 @@
       <c r="D170" s="218" t="s">
         <v>1713</v>
       </c>
-      <c r="E170" s="254" t="s">
+      <c r="E170" s="251" t="s">
         <v>331</v>
       </c>
       <c r="G170" s="66">
@@ -46406,7 +46510,7 @@
       <c r="D171" s="218" t="s">
         <v>1197</v>
       </c>
-      <c r="E171" s="254"/>
+      <c r="E171" s="251"/>
       <c r="G171" s="66">
         <v>3</v>
       </c>
@@ -46805,6 +46909,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="E160:E165"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E4:E15"/>
+    <mergeCell ref="C16:C27"/>
+    <mergeCell ref="E16:E27"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E80:E84"/>
+    <mergeCell ref="E85:E86"/>
     <mergeCell ref="E142:E147"/>
     <mergeCell ref="E31:E35"/>
     <mergeCell ref="C42:C44"/>
@@ -46818,24 +46940,6 @@
     <mergeCell ref="E106:E107"/>
     <mergeCell ref="E109:E112"/>
     <mergeCell ref="E124:E131"/>
-    <mergeCell ref="E4:E15"/>
-    <mergeCell ref="C16:C27"/>
-    <mergeCell ref="E16:E27"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E80:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="E160:E165"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="E151:E152"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -46939,7 +47043,7 @@
       <c r="D4" s="218" t="s">
         <v>626</v>
       </c>
-      <c r="E4" s="254" t="s">
+      <c r="E4" s="251" t="s">
         <v>1366</v>
       </c>
       <c r="G4" s="66">
@@ -47000,7 +47104,7 @@
       <c r="D5" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="251"/>
       <c r="G5" s="66">
         <v>74</v>
       </c>
@@ -47039,7 +47143,7 @@
       <c r="D6" s="52" t="s">
         <v>1441</v>
       </c>
-      <c r="E6" s="253" t="s">
+      <c r="E6" s="256" t="s">
         <v>1470</v>
       </c>
       <c r="G6" s="125">
@@ -47074,7 +47178,7 @@
       <c r="D7" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="253"/>
+      <c r="E7" s="256"/>
       <c r="G7" s="125">
         <v>74</v>
       </c>
@@ -47113,7 +47217,7 @@
       <c r="D8" s="218" t="s">
         <v>626</v>
       </c>
-      <c r="E8" s="254" t="s">
+      <c r="E8" s="251" t="s">
         <v>1367</v>
       </c>
       <c r="G8" s="66">
@@ -47148,7 +47252,7 @@
       <c r="D9" s="218" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="254"/>
+      <c r="E9" s="251"/>
       <c r="G9" s="66">
         <v>74</v>
       </c>
@@ -47265,7 +47369,7 @@
       <c r="D13" s="218" t="s">
         <v>1442</v>
       </c>
-      <c r="E13" s="254" t="s">
+      <c r="E13" s="251" t="s">
         <v>1439</v>
       </c>
       <c r="G13" s="66">
@@ -47300,7 +47404,7 @@
       <c r="D14" s="218" t="s">
         <v>1443</v>
       </c>
-      <c r="E14" s="254"/>
+      <c r="E14" s="251"/>
       <c r="G14" s="66">
         <v>74</v>
       </c>
@@ -47333,7 +47437,7 @@
       <c r="D15" s="218" t="s">
         <v>1444</v>
       </c>
-      <c r="E15" s="254"/>
+      <c r="E15" s="251"/>
       <c r="G15" s="66">
         <v>74</v>
       </c>
@@ -47366,7 +47470,7 @@
       <c r="D16" s="218" t="s">
         <v>1445</v>
       </c>
-      <c r="E16" s="254"/>
+      <c r="E16" s="251"/>
       <c r="G16" s="66">
         <v>74</v>
       </c>
@@ -47399,7 +47503,7 @@
       <c r="D17" s="218" t="s">
         <v>1446</v>
       </c>
-      <c r="E17" s="254"/>
+      <c r="E17" s="251"/>
       <c r="G17" s="66">
         <v>74</v>
       </c>
@@ -47475,7 +47579,7 @@
       <c r="D19" s="218" t="s">
         <v>1447</v>
       </c>
-      <c r="E19" s="254" t="s">
+      <c r="E19" s="251" t="s">
         <v>1375</v>
       </c>
       <c r="G19" s="66">
@@ -47510,7 +47614,7 @@
       <c r="D20" s="218" t="s">
         <v>1448</v>
       </c>
-      <c r="E20" s="254"/>
+      <c r="E20" s="251"/>
       <c r="G20" s="66">
         <v>74</v>
       </c>
@@ -47543,7 +47647,7 @@
       <c r="D21" s="218" t="s">
         <v>1449</v>
       </c>
-      <c r="E21" s="254"/>
+      <c r="E21" s="251"/>
       <c r="G21" s="66">
         <v>74</v>
       </c>
@@ -47576,7 +47680,7 @@
       <c r="D22" s="218" t="s">
         <v>1695</v>
       </c>
-      <c r="E22" s="254"/>
+      <c r="E22" s="251"/>
       <c r="G22" s="66">
         <v>74</v>
       </c>
@@ -47609,7 +47713,7 @@
       <c r="D23" s="218" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="254"/>
+      <c r="E23" s="251"/>
       <c r="G23" s="66">
         <v>74</v>
       </c>
@@ -47648,7 +47752,7 @@
       <c r="D24" s="52" t="s">
         <v>1450</v>
       </c>
-      <c r="E24" s="253" t="s">
+      <c r="E24" s="256" t="s">
         <v>1374</v>
       </c>
       <c r="G24" s="65">
@@ -47683,7 +47787,7 @@
       <c r="D25" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="E25" s="253"/>
+      <c r="E25" s="256"/>
       <c r="G25" s="65">
         <v>74</v>
       </c>
@@ -47716,7 +47820,7 @@
       <c r="D26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="253"/>
+      <c r="E26" s="256"/>
       <c r="G26" s="65">
         <v>74</v>
       </c>
@@ -47903,7 +48007,7 @@
       <c r="D31" s="213" t="s">
         <v>1452</v>
       </c>
-      <c r="E31" s="254"/>
+      <c r="E31" s="251"/>
       <c r="G31" s="66">
         <v>74</v>
       </c>
@@ -47936,7 +48040,7 @@
       <c r="D32" s="213" t="s">
         <v>1094</v>
       </c>
-      <c r="E32" s="254"/>
+      <c r="E32" s="251"/>
       <c r="G32" s="66">
         <v>74</v>
       </c>
@@ -48012,7 +48116,7 @@
       <c r="D34" s="218" t="s">
         <v>1372</v>
       </c>
-      <c r="E34" s="254" t="s">
+      <c r="E34" s="251" t="s">
         <v>1382</v>
       </c>
       <c r="G34" s="66">
@@ -48047,7 +48151,7 @@
       <c r="D35" s="218" t="s">
         <v>1373</v>
       </c>
-      <c r="E35" s="254"/>
+      <c r="E35" s="251"/>
       <c r="G35" s="66">
         <v>74</v>
       </c>
@@ -48164,7 +48268,7 @@
       <c r="D39" s="218" t="s">
         <v>1453</v>
       </c>
-      <c r="E39" s="254" t="s">
+      <c r="E39" s="251" t="s">
         <v>1376</v>
       </c>
       <c r="G39" s="66">
@@ -48199,7 +48303,7 @@
       <c r="D40" s="218" t="s">
         <v>1097</v>
       </c>
-      <c r="E40" s="254"/>
+      <c r="E40" s="251"/>
       <c r="G40" s="66">
         <v>74</v>
       </c>
@@ -48275,7 +48379,7 @@
       <c r="D42" s="218" t="s">
         <v>1696</v>
       </c>
-      <c r="E42" s="254" t="s">
+      <c r="E42" s="251" t="s">
         <v>1377</v>
       </c>
       <c r="G42" s="66">
@@ -48310,7 +48414,7 @@
       <c r="D43" s="218" t="s">
         <v>1454</v>
       </c>
-      <c r="E43" s="254"/>
+      <c r="E43" s="251"/>
       <c r="G43" s="66">
         <v>74</v>
       </c>
@@ -48343,7 +48447,7 @@
       <c r="D44" s="218" t="s">
         <v>1101</v>
       </c>
-      <c r="E44" s="254"/>
+      <c r="E44" s="251"/>
       <c r="G44" s="66">
         <v>74</v>
       </c>
@@ -48382,7 +48486,7 @@
       <c r="D45" s="52" t="s">
         <v>1697</v>
       </c>
-      <c r="E45" s="253" t="s">
+      <c r="E45" s="256" t="s">
         <v>1378</v>
       </c>
       <c r="G45" s="65">
@@ -48417,7 +48521,7 @@
       <c r="D46" s="52" t="s">
         <v>1104</v>
       </c>
-      <c r="E46" s="253"/>
+      <c r="E46" s="256"/>
       <c r="G46" s="65">
         <v>74</v>
       </c>
@@ -48456,7 +48560,7 @@
       <c r="D47" s="218" t="s">
         <v>1697</v>
       </c>
-      <c r="E47" s="254" t="s">
+      <c r="E47" s="251" t="s">
         <v>1379</v>
       </c>
       <c r="G47" s="66">
@@ -48491,7 +48595,7 @@
       <c r="D48" s="218" t="s">
         <v>1698</v>
       </c>
-      <c r="E48" s="254"/>
+      <c r="E48" s="251"/>
       <c r="G48" s="66">
         <v>74</v>
       </c>
@@ -48524,7 +48628,7 @@
       <c r="D49" s="218" t="s">
         <v>1104</v>
       </c>
-      <c r="E49" s="254"/>
+      <c r="E49" s="251"/>
       <c r="G49" s="66">
         <v>74</v>
       </c>
@@ -48563,7 +48667,7 @@
       <c r="D50" s="52" t="s">
         <v>1455</v>
       </c>
-      <c r="E50" s="253" t="s">
+      <c r="E50" s="256" t="s">
         <v>1440</v>
       </c>
       <c r="G50" s="65">
@@ -48598,7 +48702,7 @@
       <c r="D51" s="52" t="s">
         <v>1699</v>
       </c>
-      <c r="E51" s="253"/>
+      <c r="E51" s="256"/>
       <c r="G51" s="65">
         <v>74</v>
       </c>
@@ -48631,7 +48735,7 @@
       <c r="D52" s="52" t="s">
         <v>636</v>
       </c>
-      <c r="E52" s="253"/>
+      <c r="E52" s="256"/>
       <c r="G52" s="65">
         <v>74</v>
       </c>
@@ -48859,7 +48963,7 @@
       <c r="D59" s="218" t="s">
         <v>1700</v>
       </c>
-      <c r="E59" s="254" t="s">
+      <c r="E59" s="251" t="s">
         <v>1380</v>
       </c>
       <c r="G59" s="66">
@@ -48894,7 +48998,7 @@
       <c r="D60" s="218" t="s">
         <v>1701</v>
       </c>
-      <c r="E60" s="254"/>
+      <c r="E60" s="251"/>
       <c r="G60" s="66">
         <v>74</v>
       </c>
@@ -48927,7 +49031,7 @@
       <c r="D61" s="218" t="s">
         <v>1111</v>
       </c>
-      <c r="E61" s="254"/>
+      <c r="E61" s="251"/>
       <c r="G61" s="66">
         <v>74</v>
       </c>
@@ -49040,7 +49144,7 @@
       <c r="D64" s="52" t="s">
         <v>1702</v>
       </c>
-      <c r="E64" s="253" t="s">
+      <c r="E64" s="256" t="s">
         <v>1381</v>
       </c>
       <c r="G64" s="65">
@@ -49075,7 +49179,7 @@
       <c r="D65" s="52" t="s">
         <v>1456</v>
       </c>
-      <c r="E65" s="253"/>
+      <c r="E65" s="256"/>
       <c r="G65" s="65">
         <v>74</v>
       </c>
@@ -49108,7 +49212,7 @@
       <c r="D66" s="52" t="s">
         <v>1457</v>
       </c>
-      <c r="E66" s="253"/>
+      <c r="E66" s="256"/>
       <c r="G66" s="65">
         <v>74</v>
       </c>
@@ -49141,7 +49245,7 @@
       <c r="D67" s="52" t="s">
         <v>1458</v>
       </c>
-      <c r="E67" s="253"/>
+      <c r="E67" s="256"/>
       <c r="G67" s="65">
         <v>74</v>
       </c>
@@ -49174,7 +49278,7 @@
       <c r="D68" s="52" t="s">
         <v>1117</v>
       </c>
-      <c r="E68" s="253"/>
+      <c r="E68" s="256"/>
       <c r="G68" s="65">
         <v>74</v>
       </c>
@@ -49239,7 +49343,7 @@
       <c r="D69" s="218" t="s">
         <v>1123</v>
       </c>
-      <c r="E69" s="254" t="s">
+      <c r="E69" s="251" t="s">
         <v>629</v>
       </c>
       <c r="G69" s="66">
@@ -49274,7 +49378,7 @@
       <c r="D70" s="218" t="s">
         <v>1703</v>
       </c>
-      <c r="E70" s="254"/>
+      <c r="E70" s="251"/>
       <c r="G70" s="66">
         <v>74</v>
       </c>
@@ -49529,7 +49633,7 @@
       <c r="D77" s="52" t="s">
         <v>1706</v>
       </c>
-      <c r="E77" s="253"/>
+      <c r="E77" s="256"/>
       <c r="G77" s="65">
         <v>74</v>
       </c>
@@ -49562,7 +49666,7 @@
       <c r="D78" s="52" t="s">
         <v>1132</v>
       </c>
-      <c r="E78" s="253"/>
+      <c r="E78" s="256"/>
       <c r="G78" s="65">
         <v>74</v>
       </c>
@@ -49682,7 +49786,7 @@
       <c r="D82" s="218" t="s">
         <v>626</v>
       </c>
-      <c r="E82" s="254" t="s">
+      <c r="E82" s="251" t="s">
         <v>1418</v>
       </c>
       <c r="G82" s="66">
@@ -49717,7 +49821,7 @@
       <c r="D83" s="218" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="254"/>
+      <c r="E83" s="251"/>
       <c r="G83" s="66">
         <v>74</v>
       </c>
@@ -49750,7 +49854,7 @@
       <c r="D84" s="218" t="s">
         <v>988</v>
       </c>
-      <c r="E84" s="254"/>
+      <c r="E84" s="251"/>
       <c r="G84" s="66">
         <v>74</v>
       </c>
@@ -49789,7 +49893,7 @@
       <c r="D85" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="E85" s="253" t="s">
+      <c r="E85" s="256" t="s">
         <v>1419</v>
       </c>
       <c r="G85" s="65">
@@ -49824,7 +49928,7 @@
       <c r="D86" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E86" s="253"/>
+      <c r="E86" s="256"/>
       <c r="G86" s="65">
         <v>74</v>
       </c>
@@ -49857,7 +49961,7 @@
       <c r="D87" s="52" t="s">
         <v>988</v>
       </c>
-      <c r="E87" s="253"/>
+      <c r="E87" s="256"/>
       <c r="G87" s="65">
         <v>74</v>
       </c>
@@ -49896,7 +50000,7 @@
       <c r="D88" s="218" t="s">
         <v>1141</v>
       </c>
-      <c r="E88" s="254" t="s">
+      <c r="E88" s="251" t="s">
         <v>2542</v>
       </c>
       <c r="G88" s="66">
@@ -49932,7 +50036,7 @@
       <c r="D89" s="211" t="s">
         <v>1142</v>
       </c>
-      <c r="E89" s="254"/>
+      <c r="E89" s="251"/>
       <c r="G89" s="275">
         <v>74</v>
       </c>
@@ -49964,7 +50068,7 @@
       <c r="B90" s="213"/>
       <c r="C90" s="213"/>
       <c r="D90" s="218"/>
-      <c r="E90" s="254"/>
+      <c r="E90" s="251"/>
       <c r="G90" s="275"/>
       <c r="H90" s="276"/>
       <c r="I90" s="277"/>
@@ -49988,7 +50092,7 @@
       <c r="B91" s="213"/>
       <c r="C91" s="213"/>
       <c r="D91" s="218"/>
-      <c r="E91" s="254"/>
+      <c r="E91" s="251"/>
       <c r="G91" s="275"/>
       <c r="H91" s="276"/>
       <c r="I91" s="277"/>
@@ -50012,7 +50116,7 @@
       <c r="B92" s="213"/>
       <c r="C92" s="213"/>
       <c r="D92" s="218"/>
-      <c r="E92" s="254"/>
+      <c r="E92" s="251"/>
       <c r="G92" s="275"/>
       <c r="H92" s="276"/>
       <c r="I92" s="277"/>
@@ -50036,7 +50140,7 @@
       <c r="B93" s="213"/>
       <c r="C93" s="213"/>
       <c r="D93" s="218"/>
-      <c r="E93" s="254"/>
+      <c r="E93" s="251"/>
       <c r="G93" s="275"/>
       <c r="H93" s="276"/>
       <c r="I93" s="277"/>
@@ -50068,7 +50172,7 @@
       <c r="D94" s="52" t="s">
         <v>1707</v>
       </c>
-      <c r="E94" s="253"/>
+      <c r="E94" s="256"/>
       <c r="G94" s="65">
         <v>74</v>
       </c>
@@ -50101,7 +50205,7 @@
       <c r="D95" s="52" t="s">
         <v>1144</v>
       </c>
-      <c r="E95" s="253"/>
+      <c r="E95" s="256"/>
       <c r="G95" s="65">
         <v>74</v>
       </c>
@@ -50177,7 +50281,7 @@
       <c r="D97" s="52" t="s">
         <v>1708</v>
       </c>
-      <c r="E97" s="253"/>
+      <c r="E97" s="256"/>
       <c r="G97" s="65">
         <v>74</v>
       </c>
@@ -50210,7 +50314,7 @@
       <c r="D98" s="52" t="s">
         <v>1709</v>
       </c>
-      <c r="E98" s="253"/>
+      <c r="E98" s="256"/>
       <c r="G98" s="65">
         <v>74</v>
       </c>
@@ -50243,7 +50347,7 @@
       <c r="D99" s="52" t="s">
         <v>1710</v>
       </c>
-      <c r="E99" s="253"/>
+      <c r="E99" s="256"/>
       <c r="G99" s="65">
         <v>74</v>
       </c>
@@ -50276,7 +50380,7 @@
       <c r="D100" s="52" t="s">
         <v>1148</v>
       </c>
-      <c r="E100" s="253"/>
+      <c r="E100" s="256"/>
       <c r="G100" s="65">
         <v>74</v>
       </c>
@@ -50539,7 +50643,7 @@
       <c r="D108" s="151" t="s">
         <v>1422</v>
       </c>
-      <c r="E108" s="273" t="s">
+      <c r="E108" s="278" t="s">
         <v>1424</v>
       </c>
       <c r="G108" s="152">
@@ -50576,7 +50680,7 @@
       <c r="D109" s="151" t="s">
         <v>1423</v>
       </c>
-      <c r="E109" s="273"/>
+      <c r="E109" s="278"/>
       <c r="G109" s="152">
         <v>74</v>
       </c>
@@ -50615,7 +50719,7 @@
       <c r="D110" s="214" t="s">
         <v>1154</v>
       </c>
-      <c r="E110" s="256"/>
+      <c r="E110" s="252"/>
       <c r="G110" s="125">
         <v>74</v>
       </c>
@@ -50648,7 +50752,7 @@
       <c r="D111" s="214" t="s">
         <v>1155</v>
       </c>
-      <c r="E111" s="256"/>
+      <c r="E111" s="252"/>
       <c r="G111" s="125">
         <v>74</v>
       </c>
@@ -50798,7 +50902,7 @@
       <c r="D115" s="214" t="s">
         <v>1459</v>
       </c>
-      <c r="E115" s="256"/>
+      <c r="E115" s="252"/>
       <c r="G115" s="158">
         <v>74</v>
       </c>
@@ -50831,7 +50935,7 @@
       <c r="D116" s="214" t="s">
         <v>1460</v>
       </c>
-      <c r="E116" s="256"/>
+      <c r="E116" s="252"/>
       <c r="G116" s="158">
         <v>74</v>
       </c>
@@ -50864,7 +50968,7 @@
       <c r="D117" s="214" t="s">
         <v>1461</v>
       </c>
-      <c r="E117" s="256"/>
+      <c r="E117" s="252"/>
       <c r="G117" s="158">
         <v>74</v>
       </c>
@@ -50897,7 +51001,7 @@
       <c r="D118" s="214" t="s">
         <v>1462</v>
       </c>
-      <c r="E118" s="256"/>
+      <c r="E118" s="252"/>
       <c r="G118" s="158">
         <v>74</v>
       </c>
@@ -50930,7 +51034,7 @@
       <c r="D119" s="214" t="s">
         <v>1463</v>
       </c>
-      <c r="E119" s="256"/>
+      <c r="E119" s="252"/>
       <c r="G119" s="158">
         <v>74</v>
       </c>
@@ -50963,7 +51067,7 @@
       <c r="D120" s="214" t="s">
         <v>1464</v>
       </c>
-      <c r="E120" s="256"/>
+      <c r="E120" s="252"/>
       <c r="G120" s="158">
         <v>74</v>
       </c>
@@ -50996,7 +51100,7 @@
       <c r="D121" s="214" t="s">
         <v>1465</v>
       </c>
-      <c r="E121" s="256"/>
+      <c r="E121" s="252"/>
       <c r="G121" s="158">
         <v>74</v>
       </c>
@@ -51029,7 +51133,7 @@
       <c r="D122" s="214" t="s">
         <v>630</v>
       </c>
-      <c r="E122" s="256"/>
+      <c r="E122" s="252"/>
       <c r="G122" s="158">
         <v>74</v>
       </c>
@@ -51068,7 +51172,7 @@
       <c r="D123" s="218" t="s">
         <v>1165</v>
       </c>
-      <c r="E123" s="254" t="s">
+      <c r="E123" s="251" t="s">
         <v>631</v>
       </c>
       <c r="G123" s="66">
@@ -51103,7 +51207,7 @@
       <c r="D124" s="218" t="s">
         <v>364</v>
       </c>
-      <c r="E124" s="254"/>
+      <c r="E124" s="251"/>
       <c r="G124" s="66">
         <v>74</v>
       </c>
@@ -51507,7 +51611,7 @@
       <c r="D135" s="218" t="s">
         <v>1711</v>
       </c>
-      <c r="E135" s="254" t="s">
+      <c r="E135" s="251" t="s">
         <v>1438</v>
       </c>
       <c r="G135" s="66">
@@ -51542,7 +51646,7 @@
       <c r="D136" s="223" t="s">
         <v>633</v>
       </c>
-      <c r="E136" s="254"/>
+      <c r="E136" s="251"/>
       <c r="G136" s="66">
         <v>74</v>
       </c>
@@ -51575,7 +51679,7 @@
       <c r="D137" s="218" t="s">
         <v>1712</v>
       </c>
-      <c r="E137" s="254"/>
+      <c r="E137" s="251"/>
       <c r="G137" s="66">
         <v>74</v>
       </c>
@@ -51608,7 +51712,7 @@
       <c r="D138" s="218" t="s">
         <v>613</v>
       </c>
-      <c r="E138" s="254"/>
+      <c r="E138" s="251"/>
       <c r="G138" s="66">
         <v>74</v>
       </c>
@@ -51641,7 +51745,7 @@
       <c r="D139" s="218" t="s">
         <v>612</v>
       </c>
-      <c r="E139" s="254"/>
+      <c r="E139" s="251"/>
       <c r="G139" s="66">
         <v>74</v>
       </c>
@@ -51674,7 +51778,7 @@
       <c r="D140" s="218" t="s">
         <v>1178</v>
       </c>
-      <c r="E140" s="254"/>
+      <c r="E140" s="251"/>
       <c r="G140" s="66">
         <v>74</v>
       </c>
@@ -51713,7 +51817,7 @@
       <c r="D141" s="214" t="s">
         <v>1711</v>
       </c>
-      <c r="E141" s="256" t="s">
+      <c r="E141" s="252" t="s">
         <v>316</v>
       </c>
       <c r="G141" s="125">
@@ -51748,7 +51852,7 @@
       <c r="D142" s="214" t="s">
         <v>1182</v>
       </c>
-      <c r="E142" s="256"/>
+      <c r="E142" s="252"/>
       <c r="G142" s="125">
         <v>74</v>
       </c>
@@ -52128,7 +52232,7 @@
       <c r="D153" s="218" t="s">
         <v>1697</v>
       </c>
-      <c r="E153" s="254" t="s">
+      <c r="E153" s="251" t="s">
         <v>328</v>
       </c>
       <c r="G153" s="66">
@@ -52163,7 +52267,7 @@
       <c r="D154" s="218" t="s">
         <v>1104</v>
       </c>
-      <c r="E154" s="254"/>
+      <c r="E154" s="251"/>
       <c r="G154" s="66">
         <v>74</v>
       </c>
@@ -52202,7 +52306,7 @@
       <c r="D155" s="214" t="s">
         <v>1713</v>
       </c>
-      <c r="E155" s="256" t="s">
+      <c r="E155" s="252" t="s">
         <v>331</v>
       </c>
       <c r="G155" s="125">
@@ -52237,7 +52341,7 @@
       <c r="D156" s="214" t="s">
         <v>1197</v>
       </c>
-      <c r="E156" s="256"/>
+      <c r="E156" s="252"/>
       <c r="G156" s="125">
         <v>74</v>
       </c>
@@ -52531,7 +52635,7 @@
       <c r="D164" s="218" t="s">
         <v>1714</v>
       </c>
-      <c r="E164" s="254"/>
+      <c r="E164" s="251"/>
       <c r="G164" s="66">
         <v>74</v>
       </c>
@@ -52564,7 +52668,7 @@
       <c r="D165" s="223" t="s">
         <v>1466</v>
       </c>
-      <c r="E165" s="254"/>
+      <c r="E165" s="251"/>
       <c r="G165" s="66">
         <v>74</v>
       </c>
@@ -52597,7 +52701,7 @@
       <c r="D166" s="223" t="s">
         <v>1200</v>
       </c>
-      <c r="E166" s="254"/>
+      <c r="E166" s="251"/>
       <c r="G166" s="66">
         <v>74</v>
       </c>
@@ -52787,7 +52891,7 @@
       <c r="D172" s="224" t="s">
         <v>1326</v>
       </c>
-      <c r="E172" s="274" t="s">
+      <c r="E172" s="279" t="s">
         <v>1467</v>
       </c>
       <c r="G172" s="134">
@@ -52824,7 +52928,7 @@
       <c r="D173" s="224" t="s">
         <v>1328</v>
       </c>
-      <c r="E173" s="274"/>
+      <c r="E173" s="279"/>
       <c r="G173" s="134">
         <v>74</v>
       </c>
@@ -52863,7 +52967,7 @@
       <c r="D174" s="225" t="s">
         <v>1329</v>
       </c>
-      <c r="E174" s="279" t="s">
+      <c r="E174" s="274" t="s">
         <v>1468</v>
       </c>
       <c r="G174" s="135">
@@ -52902,7 +53006,7 @@
       <c r="D175" s="225" t="s">
         <v>1370</v>
       </c>
-      <c r="E175" s="279"/>
+      <c r="E175" s="274"/>
       <c r="G175" s="135">
         <v>74</v>
       </c>
@@ -52980,7 +53084,7 @@
       <c r="D177" s="225" t="s">
         <v>1336</v>
       </c>
-      <c r="E177" s="278" t="s">
+      <c r="E177" s="273" t="s">
         <v>1469</v>
       </c>
       <c r="G177" s="135">
@@ -53017,7 +53121,7 @@
       <c r="D178" s="225" t="s">
         <v>1337</v>
       </c>
-      <c r="E178" s="278"/>
+      <c r="E178" s="273"/>
       <c r="G178" s="135">
         <v>74</v>
       </c>
@@ -53095,7 +53199,7 @@
       <c r="D180" s="225" t="s">
         <v>1338</v>
       </c>
-      <c r="E180" s="278" t="s">
+      <c r="E180" s="273" t="s">
         <v>1343</v>
       </c>
       <c r="G180" s="135">
@@ -53130,7 +53234,7 @@
       <c r="D181" s="225" t="s">
         <v>1339</v>
       </c>
-      <c r="E181" s="278"/>
+      <c r="E181" s="273"/>
       <c r="G181" s="135">
         <v>74</v>
       </c>
@@ -53163,7 +53267,7 @@
       <c r="D182" s="225" t="s">
         <v>1340</v>
       </c>
-      <c r="E182" s="278"/>
+      <c r="E182" s="273"/>
       <c r="G182" s="135">
         <v>74</v>
       </c>
@@ -53196,7 +53300,7 @@
       <c r="D183" s="225" t="s">
         <v>1344</v>
       </c>
-      <c r="E183" s="278"/>
+      <c r="E183" s="273"/>
       <c r="G183" s="135">
         <v>74</v>
       </c>
@@ -53229,7 +53333,7 @@
       <c r="D184" s="225" t="s">
         <v>1345</v>
       </c>
-      <c r="E184" s="278"/>
+      <c r="E184" s="273"/>
       <c r="G184" s="135">
         <v>74</v>
       </c>
@@ -55305,27 +55409,12 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="E180:E184"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E88:E93"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E19:E23"/>
     <mergeCell ref="E135:E140"/>
     <mergeCell ref="E115:E122"/>
     <mergeCell ref="E97:E100"/>
@@ -55338,12 +55427,27 @@
     <mergeCell ref="E47:E49"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="E180:E184"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E88:E93"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E141:E142"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -55354,7 +55458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -55403,10 +55507,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="280" t="s">
         <v>383</v>
       </c>
       <c r="C3" s="73" t="s">
@@ -55425,8 +55529,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="281"/>
-      <c r="B4" s="281"/>
+      <c r="A4" s="280"/>
+      <c r="B4" s="280"/>
       <c r="C4" s="73" t="s">
         <v>577</v>
       </c>
@@ -55439,8 +55543,8 @@
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="281"/>
-      <c r="B5" s="281"/>
+      <c r="A5" s="280"/>
+      <c r="B5" s="280"/>
       <c r="C5" s="73" t="s">
         <v>578</v>
       </c>
@@ -55453,8 +55557,8 @@
       <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="281"/>
-      <c r="B6" s="281"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="280"/>
       <c r="C6" s="73" t="s">
         <v>855</v>
       </c>
@@ -55465,8 +55569,8 @@
       <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="281"/>
-      <c r="B7" s="281"/>
+      <c r="A7" s="280"/>
+      <c r="B7" s="280"/>
       <c r="C7" s="73" t="s">
         <v>384</v>
       </c>
@@ -55477,10 +55581,10 @@
       <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="282" t="s">
+      <c r="A8" s="281" t="s">
         <v>387</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="281" t="s">
         <v>388</v>
       </c>
       <c r="C8" s="75" t="s">
@@ -55497,8 +55601,8 @@
       <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="282"/>
-      <c r="B9" s="282"/>
+      <c r="A9" s="281"/>
+      <c r="B9" s="281"/>
       <c r="C9" s="75" t="s">
         <v>578</v>
       </c>
@@ -55511,8 +55615,8 @@
       <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="282"/>
-      <c r="B10" s="282"/>
+      <c r="A10" s="281"/>
+      <c r="B10" s="281"/>
       <c r="C10" s="75" t="s">
         <v>581</v>
       </c>
@@ -55524,10 +55628,10 @@
       <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="281" t="s">
+      <c r="A11" s="280" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="280" t="s">
         <v>394</v>
       </c>
       <c r="C11" s="73" t="s">
@@ -55546,8 +55650,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="281"/>
-      <c r="B12" s="281"/>
+      <c r="A12" s="280"/>
+      <c r="B12" s="280"/>
       <c r="C12" s="73" t="s">
         <v>577</v>
       </c>
@@ -55560,8 +55664,8 @@
       <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="281"/>
-      <c r="B13" s="281"/>
+      <c r="A13" s="280"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="73" t="s">
         <v>578</v>
       </c>
@@ -55571,10 +55675,10 @@
       <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="282" t="s">
+      <c r="A14" s="281" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="282" t="s">
+      <c r="B14" s="281" t="s">
         <v>396</v>
       </c>
       <c r="C14" s="75" t="s">
@@ -55591,8 +55695,8 @@
       <c r="H14" s="76"/>
     </row>
     <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="282"/>
-      <c r="B15" s="282"/>
+      <c r="A15" s="281"/>
+      <c r="B15" s="281"/>
       <c r="C15" s="75" t="s">
         <v>577</v>
       </c>
@@ -55609,8 +55713,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="282"/>
-      <c r="B16" s="282"/>
+      <c r="A16" s="281"/>
+      <c r="B16" s="281"/>
       <c r="C16" s="75" t="s">
         <v>578</v>
       </c>
@@ -55621,74 +55725,74 @@
       <c r="F16" s="75"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="282"/>
-      <c r="B17" s="282"/>
+      <c r="A17" s="281"/>
+      <c r="B17" s="281"/>
       <c r="C17" s="75"/>
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="282"/>
-      <c r="B18" s="282"/>
+      <c r="A18" s="281"/>
+      <c r="B18" s="281"/>
       <c r="C18" s="75"/>
       <c r="D18" s="75"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="282"/>
-      <c r="B19" s="282"/>
+      <c r="A19" s="281"/>
+      <c r="B19" s="281"/>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="282"/>
-      <c r="B20" s="282"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="281"/>
       <c r="C20" s="75"/>
       <c r="D20" s="75"/>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="282"/>
-      <c r="B21" s="282"/>
+      <c r="A21" s="281"/>
+      <c r="B21" s="281"/>
       <c r="C21" s="75"/>
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="282"/>
-      <c r="B22" s="282"/>
+      <c r="A22" s="281"/>
+      <c r="B22" s="281"/>
       <c r="C22" s="75"/>
       <c r="D22" s="75"/>
       <c r="E22" s="75"/>
       <c r="F22" s="75"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="282"/>
-      <c r="B23" s="282"/>
+      <c r="A23" s="281"/>
+      <c r="B23" s="281"/>
       <c r="C23" s="75"/>
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
       <c r="F23" s="75"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="282"/>
-      <c r="B24" s="282"/>
+      <c r="A24" s="281"/>
+      <c r="B24" s="281"/>
       <c r="C24" s="75"/>
       <c r="D24" s="75"/>
       <c r="E24" s="75"/>
       <c r="F24" s="75"/>
     </row>
     <row r="25" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="281" t="s">
+      <c r="A25" s="280" t="s">
         <v>397</v>
       </c>
-      <c r="B25" s="281" t="s">
+      <c r="B25" s="280" t="s">
         <v>398</v>
       </c>
       <c r="C25" s="74" t="s">
@@ -55705,8 +55809,8 @@
       <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="281"/>
-      <c r="B26" s="281"/>
+      <c r="A26" s="280"/>
+      <c r="B26" s="280"/>
       <c r="C26" s="73" t="s">
         <v>578</v>
       </c>
@@ -55719,8 +55823,8 @@
       <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="281"/>
-      <c r="B27" s="281"/>
+      <c r="A27" s="280"/>
+      <c r="B27" s="280"/>
       <c r="C27" s="73" t="s">
         <v>581</v>
       </c>
@@ -55733,10 +55837,10 @@
       <c r="H27" s="77"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="282" t="s">
+      <c r="A28" s="281" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="282" t="s">
+      <c r="B28" s="281" t="s">
         <v>400</v>
       </c>
       <c r="C28" s="75" t="s">
@@ -55752,8 +55856,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="282"/>
-      <c r="B29" s="282"/>
+      <c r="A29" s="281"/>
+      <c r="B29" s="281"/>
       <c r="C29" s="75" t="s">
         <v>578</v>
       </c>
@@ -55765,8 +55869,8 @@
       <c r="G29" s="76"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="282"/>
-      <c r="B30" s="282"/>
+      <c r="A30" s="281"/>
+      <c r="B30" s="281"/>
       <c r="C30" s="75" t="s">
         <v>581</v>
       </c>
@@ -55777,10 +55881,10 @@
       <c r="F30" s="75"/>
     </row>
     <row r="31" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="281" t="s">
+      <c r="A31" s="280" t="s">
         <v>401</v>
       </c>
-      <c r="B31" s="281" t="s">
+      <c r="B31" s="280" t="s">
         <v>402</v>
       </c>
       <c r="C31" s="73" t="s">
@@ -55795,8 +55899,8 @@
       <c r="H31" s="77"/>
     </row>
     <row r="32" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="281"/>
-      <c r="B32" s="281"/>
+      <c r="A32" s="280"/>
+      <c r="B32" s="280"/>
       <c r="C32" s="73" t="s">
         <v>581</v>
       </c>
@@ -55807,10 +55911,10 @@
       <c r="H32" s="77"/>
     </row>
     <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A33" s="282" t="s">
+      <c r="A33" s="281" t="s">
         <v>403</v>
       </c>
-      <c r="B33" s="282" t="s">
+      <c r="B33" s="281" t="s">
         <v>404</v>
       </c>
       <c r="C33" s="75" t="s">
@@ -55826,8 +55930,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="282"/>
-      <c r="B34" s="282"/>
+      <c r="A34" s="281"/>
+      <c r="B34" s="281"/>
       <c r="C34" s="75" t="s">
         <v>578</v>
       </c>
@@ -55841,8 +55945,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="282"/>
-      <c r="B35" s="282"/>
+      <c r="A35" s="281"/>
+      <c r="B35" s="281"/>
       <c r="C35" s="75"/>
       <c r="D35" s="75" t="s">
         <v>582</v>
@@ -55851,10 +55955,10 @@
       <c r="F35" s="75"/>
     </row>
     <row r="36" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="281" t="s">
+      <c r="A36" s="280" t="s">
         <v>389</v>
       </c>
-      <c r="B36" s="281" t="s">
+      <c r="B36" s="280" t="s">
         <v>390</v>
       </c>
       <c r="C36" s="73" t="s">
@@ -55869,8 +55973,8 @@
       <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="281"/>
-      <c r="B37" s="281"/>
+      <c r="A37" s="280"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="73" t="s">
         <v>581</v>
       </c>
@@ -55881,10 +55985,10 @@
       <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="280" t="s">
+      <c r="A38" s="282" t="s">
         <v>810</v>
       </c>
-      <c r="B38" s="280" t="s">
+      <c r="B38" s="282" t="s">
         <v>405</v>
       </c>
       <c r="C38" s="78" t="s">
@@ -55893,28 +55997,28 @@
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
       <c r="F38" s="78"/>
-      <c r="G38" s="280" t="s">
+      <c r="G38" s="282" t="s">
         <v>808</v>
       </c>
       <c r="H38" s="79"/>
     </row>
     <row r="39" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="280"/>
-      <c r="B39" s="280"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="282"/>
       <c r="C39" s="78" t="s">
         <v>581</v>
       </c>
       <c r="D39" s="78"/>
       <c r="E39" s="78"/>
       <c r="F39" s="78"/>
-      <c r="G39" s="280"/>
+      <c r="G39" s="282"/>
       <c r="H39" s="79"/>
     </row>
     <row r="40" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="281" t="s">
+      <c r="A40" s="280" t="s">
         <v>391</v>
       </c>
-      <c r="B40" s="281" t="s">
+      <c r="B40" s="280" t="s">
         <v>392</v>
       </c>
       <c r="C40" s="73" t="s">
@@ -55929,8 +56033,8 @@
       <c r="H40" s="74"/>
     </row>
     <row r="41" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="281"/>
-      <c r="B41" s="281"/>
+      <c r="A41" s="280"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="73" t="s">
         <v>581</v>
       </c>
@@ -55941,10 +56045,10 @@
       <c r="H41" s="74"/>
     </row>
     <row r="42" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="280" t="s">
+      <c r="A42" s="282" t="s">
         <v>812</v>
       </c>
-      <c r="B42" s="280" t="s">
+      <c r="B42" s="282" t="s">
         <v>804</v>
       </c>
       <c r="C42" s="78" t="s">
@@ -55953,28 +56057,28 @@
       <c r="D42" s="78"/>
       <c r="E42" s="78"/>
       <c r="F42" s="78"/>
-      <c r="G42" s="280" t="s">
+      <c r="G42" s="282" t="s">
         <v>808</v>
       </c>
       <c r="H42" s="79"/>
     </row>
     <row r="43" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="280"/>
-      <c r="B43" s="280"/>
+      <c r="A43" s="282"/>
+      <c r="B43" s="282"/>
       <c r="C43" s="78" t="s">
         <v>581</v>
       </c>
       <c r="D43" s="78"/>
       <c r="E43" s="78"/>
       <c r="F43" s="78"/>
-      <c r="G43" s="280"/>
+      <c r="G43" s="282"/>
       <c r="H43" s="79"/>
     </row>
     <row r="44" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="281" t="s">
+      <c r="A44" s="280" t="s">
         <v>811</v>
       </c>
-      <c r="B44" s="281" t="s">
+      <c r="B44" s="280" t="s">
         <v>406</v>
       </c>
       <c r="C44" s="73" t="s">
@@ -55983,28 +56087,28 @@
       <c r="D44" s="73"/>
       <c r="E44" s="73"/>
       <c r="F44" s="73"/>
-      <c r="G44" s="281" t="s">
+      <c r="G44" s="280" t="s">
         <v>808</v>
       </c>
       <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="281"/>
-      <c r="B45" s="281"/>
+      <c r="A45" s="280"/>
+      <c r="B45" s="280"/>
       <c r="C45" s="73" t="s">
         <v>581</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
-      <c r="G45" s="281"/>
+      <c r="G45" s="280"/>
       <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="280" t="s">
+      <c r="A46" s="282" t="s">
         <v>583</v>
       </c>
-      <c r="B46" s="280" t="s">
+      <c r="B46" s="282" t="s">
         <v>407</v>
       </c>
       <c r="C46" s="78" t="s">
@@ -56013,28 +56117,28 @@
       <c r="D46" s="78"/>
       <c r="E46" s="78"/>
       <c r="F46" s="78"/>
-      <c r="G46" s="280" t="s">
+      <c r="G46" s="282" t="s">
         <v>809</v>
       </c>
       <c r="H46" s="81"/>
     </row>
     <row r="47" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="280"/>
-      <c r="B47" s="280"/>
+      <c r="A47" s="282"/>
+      <c r="B47" s="282"/>
       <c r="C47" s="78" t="s">
         <v>581</v>
       </c>
       <c r="D47" s="78"/>
       <c r="E47" s="78"/>
       <c r="F47" s="78"/>
-      <c r="G47" s="280"/>
+      <c r="G47" s="282"/>
       <c r="H47" s="81"/>
     </row>
     <row r="48" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="281" t="s">
+      <c r="A48" s="280" t="s">
         <v>584</v>
       </c>
-      <c r="B48" s="281" t="s">
+      <c r="B48" s="280" t="s">
         <v>408</v>
       </c>
       <c r="C48" s="73" t="s">
@@ -56045,14 +56149,14 @@
       </c>
       <c r="E48" s="73"/>
       <c r="F48" s="73"/>
-      <c r="G48" s="281" t="s">
+      <c r="G48" s="280" t="s">
         <v>385</v>
       </c>
       <c r="H48" s="77"/>
     </row>
     <row r="49" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="281"/>
-      <c r="B49" s="281"/>
+      <c r="A49" s="280"/>
+      <c r="B49" s="280"/>
       <c r="C49" s="73" t="s">
         <v>577</v>
       </c>
@@ -56061,12 +56165,12 @@
       </c>
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
-      <c r="G49" s="281"/>
+      <c r="G49" s="280"/>
       <c r="H49" s="77"/>
     </row>
     <row r="50" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="281"/>
-      <c r="B50" s="281"/>
+      <c r="A50" s="280"/>
+      <c r="B50" s="280"/>
       <c r="C50" s="73" t="s">
         <v>578</v>
       </c>
@@ -56075,14 +56179,14 @@
       </c>
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
-      <c r="G50" s="281"/>
+      <c r="G50" s="280"/>
       <c r="H50" s="77"/>
     </row>
     <row r="51" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="280" t="s">
+      <c r="A51" s="282" t="s">
         <v>585</v>
       </c>
-      <c r="B51" s="280" t="s">
+      <c r="B51" s="282" t="s">
         <v>409</v>
       </c>
       <c r="C51" s="78" t="s">
@@ -56093,14 +56197,14 @@
       </c>
       <c r="E51" s="78"/>
       <c r="F51" s="78"/>
-      <c r="G51" s="280" t="s">
+      <c r="G51" s="282" t="s">
         <v>385</v>
       </c>
       <c r="H51" s="81"/>
     </row>
     <row r="52" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="280"/>
-      <c r="B52" s="280"/>
+      <c r="A52" s="282"/>
+      <c r="B52" s="282"/>
       <c r="C52" s="78" t="s">
         <v>577</v>
       </c>
@@ -56109,12 +56213,12 @@
       </c>
       <c r="E52" s="78"/>
       <c r="F52" s="78"/>
-      <c r="G52" s="280"/>
+      <c r="G52" s="282"/>
       <c r="H52" s="81"/>
     </row>
     <row r="53" spans="1:8" s="80" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="280"/>
-      <c r="B53" s="280"/>
+      <c r="A53" s="282"/>
+      <c r="B53" s="282"/>
       <c r="C53" s="78" t="s">
         <v>578</v>
       </c>
@@ -56123,14 +56227,14 @@
       </c>
       <c r="E53" s="78"/>
       <c r="F53" s="78"/>
-      <c r="G53" s="280"/>
+      <c r="G53" s="282"/>
       <c r="H53" s="81"/>
     </row>
     <row r="54" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="281" t="s">
+      <c r="A54" s="280" t="s">
         <v>586</v>
       </c>
-      <c r="B54" s="281" t="s">
+      <c r="B54" s="280" t="s">
         <v>410</v>
       </c>
       <c r="C54" s="73" t="s">
@@ -56141,14 +56245,14 @@
       </c>
       <c r="E54" s="73"/>
       <c r="F54" s="73"/>
-      <c r="G54" s="281" t="s">
+      <c r="G54" s="280" t="s">
         <v>808</v>
       </c>
       <c r="H54" s="77"/>
     </row>
     <row r="55" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="281"/>
-      <c r="B55" s="281"/>
+      <c r="A55" s="280"/>
+      <c r="B55" s="280"/>
       <c r="C55" s="73" t="s">
         <v>578</v>
       </c>
@@ -56157,18 +56261,18 @@
       </c>
       <c r="E55" s="73"/>
       <c r="F55" s="73"/>
-      <c r="G55" s="281"/>
+      <c r="G55" s="280"/>
       <c r="H55" s="77"/>
     </row>
     <row r="56" spans="1:8" s="68" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="281"/>
-      <c r="B56" s="281"/>
+      <c r="A56" s="280"/>
+      <c r="B56" s="280"/>
       <c r="D56" s="73" t="s">
         <v>582</v>
       </c>
       <c r="E56" s="73"/>
       <c r="F56" s="73"/>
-      <c r="G56" s="281"/>
+      <c r="G56" s="280"/>
       <c r="H56" s="77"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -56194,20 +56298,21 @@
   </sheetData>
   <autoFilter ref="A2:H61"/>
   <mergeCells count="41">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="G54:G56"/>
@@ -56220,21 +56325,20 @@
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
